--- a/TEMOA_Europe_Results/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/_3_Electricity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
   <si>
     <t>tech</t>
   </si>
@@ -59,9 +59,6 @@
     <t>ELC_CHP_COA_EXS</t>
   </si>
   <si>
-    <t>ELC_COA_PUL_NEW</t>
-  </si>
-  <si>
     <t>ELC_COA_CCO_NEW</t>
   </si>
   <si>
@@ -74,15 +71,15 @@
     <t>ELC_NGA_CCY_ADV_NEW</t>
   </si>
   <si>
-    <t>ELC_NGA_FCE_NEW</t>
-  </si>
-  <si>
     <t>ELC_OIL_EXS</t>
   </si>
   <si>
     <t>ELC_CHP_OIL_EXS</t>
   </si>
   <si>
+    <t>ELC_OIL_MIX_TUR_NEW</t>
+  </si>
+  <si>
     <t>ELC_OIL_MIX_CCY_NEW</t>
   </si>
   <si>
@@ -116,7 +113,10 @@
     <t>ELC_BIO_EXS</t>
   </si>
   <si>
-    <t>ELC_BIO_BMU_INC_NEW</t>
+    <t>ELC_BIO_GSF_CEN_NEW</t>
+  </si>
+  <si>
+    <t>ELC_BIO_CRP_GSF_NEW</t>
   </si>
   <si>
     <t>ELC_CHP_GEO_EXS</t>
@@ -131,6 +131,12 @@
     <t>ELC_WIN_ON_EXS</t>
   </si>
   <si>
+    <t>ELC_WIN_ON_CEN_1_NEW</t>
+  </si>
+  <si>
+    <t>ELC_WIN_ON_CEN_2_NEW</t>
+  </si>
+  <si>
     <t>ELC_WIN_ON_CEN_3_NEW</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
     <t>ELC_SOL_PV_DEC_2_NEW</t>
   </si>
   <si>
+    <t>ELC_SOL_CSP_2_NEW</t>
+  </si>
+  <si>
     <t>ELC_SOL_CSP_4_NEW</t>
   </si>
   <si>
@@ -159,6 +168,12 @@
   </si>
   <si>
     <t>ELC_NGA_SOFC_CCS_NEW</t>
+  </si>
+  <si>
+    <t>ELC_BIO_CRP_COM_CCS_NEW</t>
+  </si>
+  <si>
+    <t>ELC_BIO_COM_CCS_NEW</t>
   </si>
   <si>
     <t>ELC_STG_CEN_BTT_NEW</t>
@@ -597,7 +612,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -646,22 +661,22 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D2">
-        <v>2421.991605599999</v>
+        <v>1811.156939137482</v>
       </c>
       <c r="E2">
-        <v>1937.59328448</v>
+        <v>1512.074294164289</v>
       </c>
       <c r="F2">
-        <v>764.8394543999999</v>
+        <v>764.8394543999998</v>
       </c>
       <c r="G2">
         <v>509.8929696000001</v>
       </c>
       <c r="H2">
-        <v>254.9464847999999</v>
+        <v>254.9464848</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -684,22 +699,22 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D3">
-        <v>242.4975841512</v>
+        <v>229.7345534064001</v>
       </c>
       <c r="E3">
-        <v>193.99806732096</v>
+        <v>183.78764272512</v>
       </c>
       <c r="F3">
         <v>137.84073204384</v>
       </c>
       <c r="G3">
-        <v>91.89382136255999</v>
+        <v>91.89382136256002</v>
       </c>
       <c r="H3">
-        <v>45.94691068127998</v>
+        <v>45.94691068128002</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -722,19 +737,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D4">
-        <v>383.11832387904</v>
+        <v>1102.058507456118</v>
       </c>
       <c r="E4">
-        <v>383.1183238790401</v>
+        <v>1404.598063110592</v>
       </c>
       <c r="F4">
-        <v>207.6394892361599</v>
+        <v>793.3898135561601</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>68.06999805283276</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -760,25 +775,25 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D5">
-        <v>95.34248636976012</v>
+        <v>1839.14120376</v>
       </c>
       <c r="E5">
-        <v>585.7503243200002</v>
+        <v>1471.312963008</v>
       </c>
       <c r="F5">
-        <v>585.7503243200003</v>
+        <v>1103.484722256</v>
       </c>
       <c r="G5">
-        <v>514.1481170563104</v>
+        <v>735.6564815039999</v>
       </c>
       <c r="H5">
-        <v>915.8895501707196</v>
+        <v>367.8282407520001</v>
       </c>
       <c r="I5">
-        <v>744.7424306533039</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -798,22 +813,22 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>1941.31571508</v>
+        <v>158.5530069883199</v>
       </c>
       <c r="E6">
-        <v>1471.312963008</v>
+        <v>126.842405590656</v>
       </c>
       <c r="F6">
-        <v>1103.484722256</v>
+        <v>95.13180419299198</v>
       </c>
       <c r="G6">
-        <v>735.6564815040002</v>
+        <v>63.42120279532799</v>
       </c>
       <c r="H6">
-        <v>367.8282407519998</v>
+        <v>31.71060139766399</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -836,25 +851,25 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>161.1650113765598</v>
+        <v>1086.19578925168</v>
       </c>
       <c r="E7">
-        <v>126.842405590656</v>
+        <v>510.8946314013443</v>
       </c>
       <c r="F7">
-        <v>95.13180419299198</v>
+        <v>1420.753473551007</v>
       </c>
       <c r="G7">
-        <v>63.421202795328</v>
+        <v>154.6750342463367</v>
       </c>
       <c r="H7">
-        <v>31.71060139766398</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>37.45569073684992</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -874,28 +889,28 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D8">
-        <v>424.10640795032</v>
+        <v>252.9376316406663</v>
       </c>
       <c r="E8">
-        <v>510.8946314013442</v>
+        <v>152.137548</v>
       </c>
       <c r="F8">
-        <v>1420.753473551008</v>
+        <v>121.7100384</v>
       </c>
       <c r="G8">
-        <v>1644.265075210935</v>
+        <v>91.28252880000002</v>
       </c>
       <c r="H8">
-        <v>2096.381551256609</v>
+        <v>60.85501919999999</v>
       </c>
       <c r="I8">
-        <v>2688.727897640817</v>
+        <v>30.42750960000001</v>
       </c>
       <c r="J8">
-        <v>863.0165114236486</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -912,25 +927,25 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D9">
-        <v>557.3028655931198</v>
+        <v>17.73561871008</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>14.188494968064</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>10.081299056256</v>
       </c>
       <c r="G9">
-        <v>160.4282084664593</v>
+        <v>6.720866037504001</v>
       </c>
       <c r="H9">
-        <v>124.8264529143912</v>
+        <v>3.360433018752001</v>
       </c>
       <c r="I9">
-        <v>398.5719410727961</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -950,25 +965,25 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D10">
-        <v>237.9217694400001</v>
+        <v>9.299512007776331</v>
       </c>
       <c r="E10">
-        <v>152.137548</v>
+        <v>8.017010320720212</v>
       </c>
       <c r="F10">
-        <v>121.7100384</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>91.28252880000001</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>60.85501920000002</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>30.42750960000001</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -988,22 +1003,22 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D11">
-        <v>17.73561871008</v>
+        <v>11.26723764147743</v>
       </c>
       <c r="E11">
-        <v>13.441732075008</v>
+        <v>48.49694671121573</v>
       </c>
       <c r="F11">
-        <v>10.081299056256</v>
+        <v>28.74866254374398</v>
       </c>
       <c r="G11">
-        <v>6.720866037504001</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>3.360433018751999</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1026,28 +1041,28 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D12">
-        <v>35.58261184992001</v>
+        <v>1719.110615040001</v>
       </c>
       <c r="E12">
-        <v>57.26071992499202</v>
+        <v>1473.52338432</v>
       </c>
       <c r="F12">
-        <v>28.74866254374399</v>
+        <v>1296.1548288</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1015.6192867145</v>
       </c>
       <c r="H12">
-        <v>125.4328551579925</v>
+        <v>749.0836152754941</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>509.2996437223501</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>254.8940968656539</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1064,34 +1079,34 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D13">
-        <v>1814.616760320001</v>
+        <v>42.51163870557757</v>
       </c>
       <c r="E13">
-        <v>1555.38579456</v>
+        <v>38.291132600503</v>
       </c>
       <c r="F13">
-        <v>1270.776081206849</v>
+        <v>39.23937819127988</v>
       </c>
       <c r="G13">
-        <v>1036.92386304</v>
+        <v>34.83633026766666</v>
       </c>
       <c r="H13">
-        <v>777.6928972800001</v>
+        <v>39.93160178766666</v>
       </c>
       <c r="I13">
-        <v>518.46193152</v>
+        <v>32.84555794391664</v>
       </c>
       <c r="J13">
-        <v>259.2309657600001</v>
+        <v>24.95508187098888</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>5.521229702799996</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.686984057599998</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1102,34 +1117,34 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D14">
-        <v>135.8917951097271</v>
+        <v>278.0398422244687</v>
       </c>
       <c r="E14">
-        <v>131.5195386654815</v>
+        <v>562.4375790495442</v>
       </c>
       <c r="F14">
-        <v>131.2750110144354</v>
+        <v>846.4978889787661</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1094.10159731616</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1369.36334814912</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1646.79166948608</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1926.28339130304</v>
       </c>
       <c r="K14">
-        <v>1.56292416</v>
+        <v>2092.6185430032</v>
       </c>
       <c r="L14">
-        <v>3.178828800000007</v>
+        <v>2157.42995208</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1140,34 +1155,34 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D15">
-        <v>181.4714445702725</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>479.6646667745188</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>872.158907778716</v>
+        <v>0</v>
       </c>
       <c r="G15">
-        <v>1234.56397569696</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>1458.080751769256</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1646.79166948608</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>2173.582497018239</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>2242.365220699201</v>
+        <v>232.5131714447998</v>
       </c>
       <c r="L15">
-        <v>2059.2530450352</v>
+        <v>239.7144391199999</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1178,34 +1193,34 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>92.3179040299537</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>92.31790402995368</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>92.3179040299537</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>323.2775404380878</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>239.3581521323334</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>181.0196780622614</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>191.2803322090111</v>
       </c>
       <c r="K16">
-        <v>249.1516911887999</v>
+        <v>50.61018156190293</v>
       </c>
       <c r="L16">
-        <v>228.8058938927999</v>
+        <v>86.17048006577673</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1216,34 +1231,34 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3087.00928</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2860.239280000001</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>2226.290956000001</v>
       </c>
       <c r="G17">
-        <v>406.7683573216067</v>
+        <v>2190.616703999978</v>
       </c>
       <c r="H17">
-        <v>304.6952667459437</v>
+        <v>1825.51392</v>
       </c>
       <c r="I17">
-        <v>328.2728882399999</v>
+        <v>1460.411136</v>
       </c>
       <c r="J17">
-        <v>345.5248178344822</v>
+        <v>281.5534079999999</v>
       </c>
       <c r="K17">
-        <v>219.7297689075522</v>
+        <v>140.776704</v>
       </c>
       <c r="L17">
-        <v>166.487900965025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1254,34 +1269,34 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>3192.399963999999</v>
+        <v>210.8707200000117</v>
       </c>
       <c r="E18">
-        <v>2860.23928</v>
+        <v>210.8707200000006</v>
       </c>
       <c r="F18">
-        <v>1702.660037192054</v>
+        <v>400.6990440000102</v>
       </c>
       <c r="G18">
-        <v>1335.212938457743</v>
+        <v>400.6990440000006</v>
       </c>
       <c r="H18">
-        <v>474.8947200000001</v>
+        <v>400.699044000001</v>
       </c>
       <c r="I18">
-        <v>474.8947200000001</v>
+        <v>400.6990440000005</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>400.6990440000005</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>400.6990440000005</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>400.6990440000005</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1292,34 +1307,34 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D19">
-        <v>105.4800360000009</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>210.8707200000006</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>924.3299628079469</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>924.3299628079469</v>
+        <v>238.34646</v>
       </c>
       <c r="H19">
-        <v>924.3299628079469</v>
+        <v>476.69292</v>
       </c>
       <c r="I19">
-        <v>924.3299628079469</v>
+        <v>715.0393799999999</v>
       </c>
       <c r="J19">
-        <v>924.3299628079468</v>
+        <v>1817.732412</v>
       </c>
       <c r="K19">
-        <v>924.3299628079467</v>
+        <v>1817.732412</v>
       </c>
       <c r="L19">
-        <v>924.3299628079468</v>
+        <v>1817.732412</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1330,34 +1345,34 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>30.2682259944</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>24.21458079552</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>18.16093559664001</v>
       </c>
       <c r="G20">
-        <v>623.5820420807019</v>
+        <v>12.10729039776</v>
       </c>
       <c r="H20">
-        <v>1834.408141192053</v>
+        <v>6.053645198879999</v>
       </c>
       <c r="I20">
-        <v>2160.632293192054</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>3021.186301192054</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>3406.918885192053</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>3851.891845192054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1368,22 +1383,22 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D21">
-        <v>31.9497941052</v>
+        <v>208.815624</v>
       </c>
       <c r="E21">
-        <v>24.21458079552</v>
+        <v>158.2602624</v>
       </c>
       <c r="F21">
-        <v>18.16093559664001</v>
+        <v>118.6951968</v>
       </c>
       <c r="G21">
-        <v>12.10729039776</v>
+        <v>79.13013119999999</v>
       </c>
       <c r="H21">
-        <v>6.053645198880001</v>
+        <v>39.5650656</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1406,31 +1421,31 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D22">
-        <v>208.815624</v>
+        <v>235.9663280745209</v>
       </c>
       <c r="E22">
-        <v>158.2602624</v>
+        <v>365.261545182533</v>
       </c>
       <c r="F22">
-        <v>118.6951968</v>
+        <v>457.9514747453255</v>
       </c>
       <c r="G22">
-        <v>79.13013120000001</v>
+        <v>52.20646812096712</v>
       </c>
       <c r="H22">
-        <v>39.5650656</v>
+        <v>15.06133276878029</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>28.42962635596971</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>86.83673933768269</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>130.8304102298855</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1444,34 +1459,34 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>283.7345818948001</v>
+        <v>49.44982193107906</v>
       </c>
       <c r="E23">
-        <v>558.1351568044799</v>
+        <v>192.8736116219468</v>
       </c>
       <c r="F23">
-        <v>703.30386760336</v>
+        <v>245.3523928580346</v>
       </c>
       <c r="G23">
-        <v>860.6767384022398</v>
+        <v>264.5218683487032</v>
       </c>
       <c r="H23">
-        <v>1022.35749091632</v>
+        <v>416.2223402573371</v>
       </c>
       <c r="I23">
-        <v>1022.35749091632</v>
+        <v>426.519175088763</v>
       </c>
       <c r="J23">
-        <v>1374.92481888</v>
+        <v>397.2927562026809</v>
       </c>
       <c r="K23">
-        <v>1529.30552256</v>
+        <v>187.8469665760499</v>
       </c>
       <c r="L23">
-        <v>1683.68622624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1482,10 +1497,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D24">
-        <v>1.56017926656</v>
+        <v>1.47806456832</v>
       </c>
       <c r="E24">
         <v>1.330258111488</v>
@@ -1494,7 +1509,7 @@
         <v>1.100336956416</v>
       </c>
       <c r="G24">
-        <v>0.8704158013439998</v>
+        <v>0.8704158013440002</v>
       </c>
       <c r="H24">
         <v>0.640494646272</v>
@@ -1503,13 +1518,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.4105734912</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4105734912</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0.4105734912000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1520,28 +1535,28 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D25">
-        <v>21.570624</v>
+        <v>20.43532800000001</v>
       </c>
       <c r="E25">
-        <v>18.48910628571429</v>
+        <v>17.51599542857143</v>
       </c>
       <c r="F25">
         <v>14.59666285714286</v>
       </c>
       <c r="G25">
-        <v>12.32607085714286</v>
+        <v>11.80837588114286</v>
       </c>
       <c r="H25">
-        <v>9.244553142857143</v>
+        <v>8.856281910857142</v>
       </c>
       <c r="I25">
-        <v>6.163035428571427</v>
+        <v>5.904187940571428</v>
       </c>
       <c r="J25">
-        <v>3.081517714285717</v>
+        <v>3.038376466285716</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1558,34 +1573,34 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>15.51919673343999</v>
+        <v>16.73660743167999</v>
       </c>
       <c r="E26">
-        <v>34.33063560279771</v>
+        <v>35.30374645994058</v>
       </c>
       <c r="F26">
-        <v>65.70300018644114</v>
+        <v>65.70300018644119</v>
       </c>
       <c r="G26">
-        <v>91.75532134151315</v>
+        <v>87.90159784516962</v>
       </c>
       <c r="H26">
-        <v>113.2314962108708</v>
+        <v>108.4757733700143</v>
       </c>
       <c r="I26">
-        <v>135.3705325714286</v>
+        <v>131.0033687868595</v>
       </c>
       <c r="J26">
-        <v>156.2062127945143</v>
+        <v>152.8966311393786</v>
       </c>
       <c r="K26">
-        <v>177.7047545088</v>
+        <v>178.115328</v>
       </c>
       <c r="L26">
-        <v>195.8694905088001</v>
+        <v>196.280064</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1596,16 +1611,16 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D27">
-        <v>262.5628310339878</v>
+        <v>237.539128732758</v>
       </c>
       <c r="E27">
-        <v>226.136037333402</v>
+        <v>204.6513998445406</v>
       </c>
       <c r="F27">
-        <v>150.757358222268</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1634,28 +1649,28 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D28">
-        <v>287.5171689660122</v>
+        <v>312.540871267242</v>
       </c>
       <c r="E28">
-        <v>302.3247161242956</v>
+        <v>321.709105923118</v>
       </c>
       <c r="F28">
-        <v>605.4228300177321</v>
+        <v>349.611990222823</v>
       </c>
       <c r="G28">
-        <v>1403.09115671304</v>
+        <v>386.3009326943259</v>
       </c>
       <c r="H28">
-        <v>923.8114691584416</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>732.150780378823</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>797.668326695308</v>
+        <v>0</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -1672,34 +1687,34 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>454.5592465423024</v>
+        <v>173.9662287288541</v>
       </c>
       <c r="F29">
-        <v>774.50981176</v>
+        <v>189.6242856846983</v>
       </c>
       <c r="G29">
-        <v>1168.905182076695</v>
+        <v>208.24648496952</v>
       </c>
       <c r="H29">
-        <v>1556.239015030809</v>
+        <v>215.8065690474063</v>
       </c>
       <c r="I29">
-        <v>1015.506461213163</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>2648.389474247811</v>
+        <v>0</v>
       </c>
       <c r="K29">
-        <v>3439.99217164902</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>3832.788733986192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1710,34 +1725,34 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>126.62</v>
+        <v>282.6932655034871</v>
       </c>
       <c r="F30">
-        <v>259.5700000000001</v>
+        <v>991.4537240924786</v>
       </c>
       <c r="G30">
-        <v>908.0745173207999</v>
+        <v>1108.857230081422</v>
       </c>
       <c r="H30">
-        <v>908.0745173208002</v>
+        <v>1401.051211696276</v>
       </c>
       <c r="I30">
-        <v>679.0009553207999</v>
+        <v>1263.957576404561</v>
       </c>
       <c r="J30">
-        <v>963.2291857044446</v>
+        <v>1274.881670061475</v>
       </c>
       <c r="K30">
-        <v>3033.052700801567</v>
+        <v>1862.166961536554</v>
       </c>
       <c r="L30">
-        <v>2921.50214758089</v>
+        <v>1524.569004752959</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1748,34 +1763,34 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D31">
-        <v>10.1822356408176</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>6.7881570938784</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>3.394078546939201</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>717.9257992816799</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1470.168719065512</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2008.83557811212</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>2081.557931548239</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>1599.915087332793</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>2087.684984300539</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1786,34 +1801,34 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>200.4250894484241</v>
+        <v>126.62</v>
       </c>
       <c r="F32">
-        <v>580.2859214530607</v>
+        <v>259.57</v>
       </c>
       <c r="G32">
-        <v>1324.808026646549</v>
+        <v>816.3933908255999</v>
       </c>
       <c r="H32">
-        <v>2243.313478051349</v>
+        <v>1378.616517648</v>
       </c>
       <c r="I32">
-        <v>3167.454869697379</v>
+        <v>1970.3535971472</v>
       </c>
       <c r="J32">
-        <v>4594.856225313601</v>
+        <v>2337.121988625601</v>
       </c>
       <c r="K32">
-        <v>4490.81304090393</v>
+        <v>2400.458212646401</v>
       </c>
       <c r="L32">
-        <v>3140.008636190571</v>
+        <v>2400.4582126464</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1824,34 +1839,34 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D33">
-        <v>154.0477643591824</v>
+        <v>10.1822356408176</v>
       </c>
       <c r="E33">
-        <v>154.4667534576976</v>
+        <v>5.669360729078399</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>43.40402995555183</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>180.6295042315249</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>41.31013907941737</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>638.3857492702746</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>2259.636973669649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1862,34 +1877,34 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D34">
-        <v>2.74</v>
+        <v>99.10711907133735</v>
       </c>
       <c r="E34">
-        <v>20.13</v>
+        <v>83.96952053692574</v>
       </c>
       <c r="F34">
-        <v>20.46</v>
+        <v>310.6070613718931</v>
       </c>
       <c r="G34">
-        <v>58.2775693056</v>
+        <v>691.2918408499216</v>
       </c>
       <c r="H34">
-        <v>58.5276876288</v>
+        <v>1346.318075367926</v>
       </c>
       <c r="I34">
-        <v>58.5276876288</v>
+        <v>1801.328247051419</v>
       </c>
       <c r="J34">
-        <v>58.77780595200002</v>
+        <v>2672.549683802237</v>
       </c>
       <c r="K34">
-        <v>59.0279242752</v>
+        <v>2649.702591508239</v>
       </c>
       <c r="L34">
-        <v>59.2780425984</v>
+        <v>2694.126557811121</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1900,34 +1915,34 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D35">
-        <v>1.7074005796</v>
+        <v>54.94064528784506</v>
       </c>
       <c r="E35">
-        <v>1.115033612</v>
+        <v>272.0411187339959</v>
       </c>
       <c r="F35">
-        <v>0.4845482275999995</v>
+        <v>273.072938628107</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>581.3136376300783</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>665.3799658958826</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1088.317633625051</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>1098.935640430221</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>1836.706578972333</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1970.588238354252</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1938,34 +1953,34 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D36">
-        <v>0.01259942039999995</v>
+        <v>2.740000000000001</v>
       </c>
       <c r="E36">
-        <v>0.6449663880000001</v>
+        <v>12.94245980019651</v>
       </c>
       <c r="F36">
-        <v>1.3654517724</v>
+        <v>12.79619081148998</v>
       </c>
       <c r="G36">
-        <v>2.223288</v>
+        <v>11.71034203374311</v>
       </c>
       <c r="H36">
-        <v>2.412504000000001</v>
+        <v>11.71034203374311</v>
       </c>
       <c r="I36">
-        <v>2.617488000000001</v>
+        <v>9.238116465716828</v>
       </c>
       <c r="J36">
-        <v>2.806704000000001</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>2.99592</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>3.185136</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1976,34 +1991,34 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>7.18754019980349</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>7.663809188510022</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>7.68777684620349</v>
       </c>
       <c r="H37">
-        <v>1.277586432</v>
+        <v>7.937895169403485</v>
       </c>
       <c r="I37">
-        <v>8.517242880000003</v>
+        <v>17.85279981398785</v>
       </c>
       <c r="J37">
-        <v>59.93959219200001</v>
+        <v>56.47127020980454</v>
       </c>
       <c r="K37">
-        <v>373.41399168</v>
+        <v>59.02792427519999</v>
       </c>
       <c r="L37">
-        <v>2296.829952000001</v>
+        <v>59.2780425984</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2014,34 +2029,34 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1.7034436</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1.094197514</v>
       </c>
       <c r="F38">
-        <v>1.89216</v>
+        <v>0.6041772000000001</v>
       </c>
       <c r="G38">
-        <v>0.94608</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>11.01449988</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>159.27390828</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>959.3338712400002</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>1473.153291217454</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>914.6491350006318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2052,34 +2067,34 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>0.01655639999999993</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>0.665802486</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1.2458228</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1.4298948</v>
       </c>
       <c r="H39">
-        <v>1.7076744</v>
+        <v>1.4133384</v>
       </c>
       <c r="I39">
-        <v>3.5146872</v>
+        <v>0.7618572000000003</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>2.6991399072</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>2.99592</v>
       </c>
       <c r="L39">
-        <v>1224.691248812188</v>
+        <v>2.99592</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2090,7 +2105,7 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2108,16 +2123,16 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>91.83040372799999</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>839.6376744959999</v>
+        <v>29.96979609600001</v>
       </c>
       <c r="K40">
-        <v>1231.143493758971</v>
+        <v>186.70699584</v>
       </c>
       <c r="L40">
-        <v>207.9877009811873</v>
+        <v>171.722097792</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2128,34 +2143,34 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>25.08</v>
+        <v>0</v>
       </c>
       <c r="E41">
-        <v>27.17</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>30.8</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>41.057412192</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>74.290048992</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>94.72771065600001</v>
+        <v>6.3072</v>
       </c>
       <c r="J41">
-        <v>140.755322592</v>
+        <v>39.10464</v>
       </c>
       <c r="K41">
-        <v>173.9879593920001</v>
+        <v>243.6155999999999</v>
       </c>
       <c r="L41">
-        <v>207.25080768</v>
+        <v>966.8128000000003</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2166,34 +2181,34 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D42">
-        <v>175.75</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>190.475</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>119.607280992</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>212.4532259136</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>280.0176804864</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>398.1451157568</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>490.9910606784</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>583.0817184</v>
+        <v>468.7059199999999</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2204,34 +2219,34 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D43">
-        <v>116.85</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>126.825</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>4.580919360000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>24.71958775835297</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>19.50399705791211</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>347.7826240698402</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>730.0523331763068</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>835.0368302865189</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2242,34 +2257,34 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D44">
-        <v>37.525</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>46.8825</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>59.2</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>132.47737488</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>138.51967248</v>
+        <v>3.720286601647037</v>
       </c>
       <c r="I44">
-        <v>134.5894602025085</v>
+        <v>89.28202828725715</v>
       </c>
       <c r="J44">
-        <v>150.60426768</v>
+        <v>293.1982576063092</v>
       </c>
       <c r="K44">
-        <v>156.64656528</v>
+        <v>200.0730001143475</v>
       </c>
       <c r="L44">
-        <v>162.53780544</v>
+        <v>249.8084532862323</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2280,33 +2295,223 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>10.650069864</v>
+      </c>
+      <c r="J45">
+        <v>419.818837248</v>
+      </c>
+      <c r="K45">
+        <v>1201.479426601929</v>
+      </c>
+      <c r="L45">
+        <v>1582.7681952148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46">
+        <v>25.08</v>
+      </c>
+      <c r="E46">
+        <v>27.17</v>
+      </c>
+      <c r="F46">
+        <v>29.25999999999999</v>
+      </c>
+      <c r="G46">
+        <v>41.057412192</v>
+      </c>
+      <c r="H46">
+        <v>74.29004899200001</v>
+      </c>
+      <c r="I46">
+        <v>107.522685792</v>
+      </c>
+      <c r="J46">
+        <v>140.755322592</v>
+      </c>
+      <c r="K46">
+        <v>181.6158239999998</v>
+      </c>
+      <c r="L46">
+        <v>207.220596192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>175.75</v>
+      </c>
+      <c r="E47">
+        <v>190.475</v>
+      </c>
+      <c r="F47">
+        <v>205.2</v>
+      </c>
+      <c r="G47">
+        <v>119.607280992</v>
+      </c>
+      <c r="H47">
+        <v>212.4532259136</v>
+      </c>
+      <c r="I47">
+        <v>305.2991708352</v>
+      </c>
+      <c r="J47">
+        <v>398.1451157568</v>
+      </c>
+      <c r="K47">
+        <v>512.5167648</v>
+      </c>
+      <c r="L47">
+        <v>583.8370056000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>58</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48">
+        <v>116.85</v>
+      </c>
+      <c r="E48">
+        <v>126.825</v>
+      </c>
+      <c r="F48">
+        <v>136.8</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49">
+        <v>37.525</v>
+      </c>
+      <c r="E49">
+        <v>46.8825</v>
+      </c>
+      <c r="F49">
+        <v>56.24</v>
+      </c>
+      <c r="G49">
+        <v>132.47737488</v>
+      </c>
+      <c r="H49">
+        <v>138.51967248</v>
+      </c>
+      <c r="I49">
+        <v>144.56197008</v>
+      </c>
+      <c r="J49">
+        <v>150.60426768</v>
+      </c>
+      <c r="K49">
+        <v>163.51416</v>
+      </c>
+      <c r="L49">
+        <v>162.68886288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
         <v>30.211488</v>
       </c>
     </row>

--- a/TEMOA_Europe_Results/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/_3_Electricity.xlsx
@@ -77,10 +77,10 @@
     <t>ELC_CHP_OIL_EXS</t>
   </si>
   <si>
-    <t>ELC_OIL_MIX_TUR_NEW</t>
-  </si>
-  <si>
     <t>ELC_OIL_MIX_CCY_NEW</t>
+  </si>
+  <si>
+    <t>ELC_OIL_GPL_NEW</t>
   </si>
   <si>
     <t>ELC_HYD_CONV_EXS</t>
@@ -664,16 +664,16 @@
         <v>61</v>
       </c>
       <c r="D2">
-        <v>1811.156939137482</v>
+        <v>1772.750853733755</v>
       </c>
       <c r="E2">
-        <v>1512.074294164289</v>
+        <v>1499.475522079672</v>
       </c>
       <c r="F2">
         <v>764.8394543999998</v>
       </c>
       <c r="G2">
-        <v>509.8929696000001</v>
+        <v>509.8929696</v>
       </c>
       <c r="H2">
         <v>254.9464848</v>
@@ -740,16 +740,16 @@
         <v>61</v>
       </c>
       <c r="D4">
-        <v>1102.058507456118</v>
+        <v>1140.464592859844</v>
       </c>
       <c r="E4">
-        <v>1404.598063110592</v>
+        <v>1417.196835195209</v>
       </c>
       <c r="F4">
-        <v>793.3898135561601</v>
+        <v>793.3898135561606</v>
       </c>
       <c r="G4">
-        <v>68.06999805283276</v>
+        <v>75.23412547177938</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -863,13 +863,13 @@
         <v>1420.753473551007</v>
       </c>
       <c r="G7">
-        <v>154.6750342463367</v>
+        <v>155.428974749908</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>37.45569073684992</v>
+        <v>41.44274591134169</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -892,7 +892,7 @@
         <v>61</v>
       </c>
       <c r="D8">
-        <v>252.9376316406663</v>
+        <v>237.92176944</v>
       </c>
       <c r="E8">
         <v>152.137548</v>
@@ -904,7 +904,7 @@
         <v>91.28252880000002</v>
       </c>
       <c r="H8">
-        <v>60.85501919999999</v>
+        <v>60.8550192</v>
       </c>
       <c r="I8">
         <v>30.42750960000001</v>
@@ -930,7 +930,7 @@
         <v>61</v>
       </c>
       <c r="D9">
-        <v>17.73561871008</v>
+        <v>17.73561871008001</v>
       </c>
       <c r="E9">
         <v>14.188494968064</v>
@@ -939,10 +939,10 @@
         <v>10.081299056256</v>
       </c>
       <c r="G9">
-        <v>6.720866037504001</v>
+        <v>6.720866037504</v>
       </c>
       <c r="H9">
-        <v>3.360433018752001</v>
+        <v>3.360433018752</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>61</v>
       </c>
       <c r="D10">
-        <v>9.299512007776331</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>8.017010320720212</v>
+        <v>56.51395703193595</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>28.74866254374398</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>61</v>
       </c>
       <c r="D11">
-        <v>11.26723764147743</v>
+        <v>35.58261184992</v>
       </c>
       <c r="E11">
-        <v>48.49694671121573</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>28.74866254374398</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1044,7 +1044,7 @@
         <v>61</v>
       </c>
       <c r="D12">
-        <v>1719.110615040001</v>
+        <v>1719.11061504</v>
       </c>
       <c r="E12">
         <v>1473.52338432</v>
@@ -1053,16 +1053,16 @@
         <v>1296.1548288</v>
       </c>
       <c r="G12">
-        <v>1015.6192867145</v>
+        <v>1015.460713301958</v>
       </c>
       <c r="H12">
-        <v>749.0836152754941</v>
+        <v>759.091465671033</v>
       </c>
       <c r="I12">
-        <v>509.2996437223501</v>
+        <v>516.275910262641</v>
       </c>
       <c r="J12">
-        <v>254.8940968656539</v>
+        <v>254.8016800653801</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>61</v>
       </c>
       <c r="D13">
-        <v>42.51163870557757</v>
+        <v>31.86037540313118</v>
       </c>
       <c r="E13">
-        <v>38.291132600503</v>
+        <v>27.63986929805649</v>
       </c>
       <c r="F13">
-        <v>39.23937819127988</v>
+        <v>28.58811488883383</v>
       </c>
       <c r="G13">
-        <v>34.83633026766666</v>
+        <v>34.83633026766664</v>
       </c>
       <c r="H13">
-        <v>39.93160178766666</v>
+        <v>34.83633026766665</v>
       </c>
       <c r="I13">
-        <v>32.84555794391664</v>
+        <v>27.75028642391662</v>
       </c>
       <c r="J13">
-        <v>24.95508187098888</v>
+        <v>24.95508187098887</v>
       </c>
       <c r="K13">
         <v>5.521229702799996</v>
       </c>
       <c r="L13">
-        <v>5.686984057599998</v>
+        <v>5.686984057599997</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1120,19 +1120,19 @@
         <v>61</v>
       </c>
       <c r="D14">
-        <v>278.0398422244687</v>
+        <v>278.0398422244689</v>
       </c>
       <c r="E14">
-        <v>562.4375790495442</v>
+        <v>562.437579049544</v>
       </c>
       <c r="F14">
-        <v>846.4978889787661</v>
+        <v>846.4978889787657</v>
       </c>
       <c r="G14">
         <v>1094.10159731616</v>
       </c>
       <c r="H14">
-        <v>1369.36334814912</v>
+        <v>1369.363348149119</v>
       </c>
       <c r="I14">
         <v>1646.79166948608</v>
@@ -1141,7 +1141,7 @@
         <v>1926.28339130304</v>
       </c>
       <c r="K14">
-        <v>2092.6185430032</v>
+        <v>2092.618543003201</v>
       </c>
       <c r="L14">
         <v>2157.42995208</v>
@@ -1179,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>232.5131714447998</v>
+        <v>232.5131714448</v>
       </c>
       <c r="L15">
-        <v>239.7144391199999</v>
+        <v>239.71443912</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1196,31 +1196,31 @@
         <v>61</v>
       </c>
       <c r="D16">
-        <v>92.3179040299537</v>
+        <v>102.9691673324</v>
       </c>
       <c r="E16">
-        <v>92.31790402995368</v>
+        <v>102.9691673324</v>
       </c>
       <c r="F16">
-        <v>92.3179040299537</v>
+        <v>102.9691673324</v>
       </c>
       <c r="G16">
-        <v>323.2775404380878</v>
+        <v>333.0691267879167</v>
       </c>
       <c r="H16">
-        <v>239.3581521323334</v>
+        <v>247.9543138523334</v>
       </c>
       <c r="I16">
-        <v>181.0196780622614</v>
+        <v>184.3595254629448</v>
       </c>
       <c r="J16">
-        <v>191.2803322090111</v>
+        <v>197.6203296490111</v>
       </c>
       <c r="K16">
-        <v>50.61018156190293</v>
+        <v>179.4954604090112</v>
       </c>
       <c r="L16">
-        <v>86.17048006577673</v>
+        <v>192.0065274490111</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1237,13 +1237,13 @@
         <v>3087.00928</v>
       </c>
       <c r="E17">
-        <v>2860.239280000001</v>
+        <v>2860.23928</v>
       </c>
       <c r="F17">
-        <v>2226.290956000001</v>
+        <v>2226.290955999999</v>
       </c>
       <c r="G17">
-        <v>2190.616703999978</v>
+        <v>2190.616704</v>
       </c>
       <c r="H17">
         <v>1825.51392</v>
@@ -1255,7 +1255,7 @@
         <v>281.5534079999999</v>
       </c>
       <c r="K17">
-        <v>140.776704</v>
+        <v>140.7767039999999</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1272,25 +1272,25 @@
         <v>61</v>
       </c>
       <c r="D18">
-        <v>210.8707200000117</v>
+        <v>210.8707200000006</v>
       </c>
       <c r="E18">
         <v>210.8707200000006</v>
       </c>
       <c r="F18">
-        <v>400.6990440000102</v>
+        <v>400.6990440000005</v>
       </c>
       <c r="G18">
+        <v>400.6990440000005</v>
+      </c>
+      <c r="H18">
+        <v>400.6990440000005</v>
+      </c>
+      <c r="I18">
         <v>400.6990440000006</v>
       </c>
-      <c r="H18">
-        <v>400.699044000001</v>
-      </c>
-      <c r="I18">
-        <v>400.6990440000005</v>
-      </c>
       <c r="J18">
-        <v>400.6990440000005</v>
+        <v>400.6990440000006</v>
       </c>
       <c r="K18">
         <v>400.6990440000005</v>
@@ -1325,7 +1325,7 @@
         <v>476.69292</v>
       </c>
       <c r="I19">
-        <v>715.0393799999999</v>
+        <v>715.0393800000002</v>
       </c>
       <c r="J19">
         <v>1817.732412</v>
@@ -1348,19 +1348,19 @@
         <v>61</v>
       </c>
       <c r="D20">
-        <v>30.2682259944</v>
+        <v>30.26822599440001</v>
       </c>
       <c r="E20">
-        <v>24.21458079552</v>
+        <v>24.21458079552001</v>
       </c>
       <c r="F20">
-        <v>18.16093559664001</v>
+        <v>18.16093559664</v>
       </c>
       <c r="G20">
         <v>12.10729039776</v>
       </c>
       <c r="H20">
-        <v>6.053645198879999</v>
+        <v>6.05364519888</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1424,28 +1424,28 @@
         <v>61</v>
       </c>
       <c r="D22">
-        <v>235.9663280745209</v>
+        <v>235.9663280745211</v>
       </c>
       <c r="E22">
-        <v>365.261545182533</v>
+        <v>373.0384092174389</v>
       </c>
       <c r="F22">
-        <v>457.9514747453255</v>
+        <v>457.9514747453259</v>
       </c>
       <c r="G22">
-        <v>52.20646812096712</v>
+        <v>52.20646812096715</v>
       </c>
       <c r="H22">
-        <v>15.06133276878029</v>
+        <v>0.3034099187054243</v>
       </c>
       <c r="I22">
         <v>28.42962635596971</v>
       </c>
       <c r="J22">
-        <v>86.83673933768269</v>
+        <v>78.94679769048855</v>
       </c>
       <c r="K22">
-        <v>130.8304102298855</v>
+        <v>134.3490130202587</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1462,28 +1462,28 @@
         <v>61</v>
       </c>
       <c r="D23">
-        <v>49.44982193107906</v>
+        <v>49.44982193107901</v>
       </c>
       <c r="E23">
-        <v>192.8736116219468</v>
+        <v>185.0967475870411</v>
       </c>
       <c r="F23">
-        <v>245.3523928580346</v>
+        <v>245.3523928580342</v>
       </c>
       <c r="G23">
-        <v>264.5218683487032</v>
+        <v>264.572608307756</v>
       </c>
       <c r="H23">
-        <v>416.2223402573371</v>
+        <v>419.9834828740465</v>
       </c>
       <c r="I23">
-        <v>426.519175088763</v>
+        <v>426.7738153583289</v>
       </c>
       <c r="J23">
-        <v>397.2927562026809</v>
+        <v>397.1873249701569</v>
       </c>
       <c r="K23">
-        <v>187.8469665760499</v>
+        <v>187.8168161467451</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>1.100336956416</v>
       </c>
       <c r="G24">
-        <v>0.8704158013440002</v>
+        <v>0.8704158013440004</v>
       </c>
       <c r="H24">
         <v>0.640494646272</v>
@@ -1538,7 +1538,7 @@
         <v>61</v>
       </c>
       <c r="D25">
-        <v>20.43532800000001</v>
+        <v>20.435328</v>
       </c>
       <c r="E25">
         <v>17.51599542857143</v>
@@ -1550,13 +1550,13 @@
         <v>11.80837588114286</v>
       </c>
       <c r="H25">
-        <v>8.856281910857142</v>
+        <v>8.856281910857144</v>
       </c>
       <c r="I25">
-        <v>5.904187940571428</v>
+        <v>5.941975577847995</v>
       </c>
       <c r="J25">
-        <v>3.038376466285716</v>
+        <v>2.952093970285716</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1585,16 +1585,16 @@
         <v>65.70300018644119</v>
       </c>
       <c r="G26">
-        <v>87.90159784516962</v>
+        <v>89.4648136293215</v>
       </c>
       <c r="H26">
-        <v>108.4757733700143</v>
+        <v>109.9443385944521</v>
       </c>
       <c r="I26">
-        <v>131.0033687868595</v>
+        <v>131.2260706708899</v>
       </c>
       <c r="J26">
-        <v>152.8966311393786</v>
+        <v>155.2316727859171</v>
       </c>
       <c r="K26">
         <v>178.115328</v>
@@ -1614,10 +1614,10 @@
         <v>61</v>
       </c>
       <c r="D27">
-        <v>237.539128732758</v>
+        <v>237.6764884596298</v>
       </c>
       <c r="E27">
-        <v>204.6513998445406</v>
+        <v>204.4181647406179</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>61</v>
       </c>
       <c r="D28">
-        <v>312.540871267242</v>
+        <v>312.4035115403702</v>
       </c>
       <c r="E28">
-        <v>321.709105923118</v>
+        <v>323.9652520585946</v>
       </c>
       <c r="F28">
-        <v>349.611990222823</v>
+        <v>376.9729514105603</v>
       </c>
       <c r="G28">
-        <v>386.3009326943259</v>
+        <v>392.2432922082385</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1693,16 +1693,16 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>173.9662287288541</v>
+        <v>195.5426127452605</v>
       </c>
       <c r="F29">
-        <v>189.6242856846983</v>
+        <v>195.5566127452605</v>
       </c>
       <c r="G29">
-        <v>208.24648496952</v>
+        <v>218.7786018950997</v>
       </c>
       <c r="H29">
-        <v>215.8065690474063</v>
+        <v>239.1731615146157</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>282.6932655034871</v>
+        <v>259.0939704555269</v>
       </c>
       <c r="F30">
-        <v>991.4537240924786</v>
+        <v>958.1604358441796</v>
       </c>
       <c r="G30">
-        <v>1108.857230081422</v>
+        <v>1077.579677462896</v>
       </c>
       <c r="H30">
-        <v>1401.051211696276</v>
+        <v>1287.192235855125</v>
       </c>
       <c r="I30">
-        <v>1263.957576404561</v>
+        <v>1189.229245857794</v>
       </c>
       <c r="J30">
-        <v>1274.881670061475</v>
+        <v>1309.581050551405</v>
       </c>
       <c r="K30">
-        <v>1862.166961536554</v>
+        <v>1837.923968367435</v>
       </c>
       <c r="L30">
-        <v>1524.569004752959</v>
+        <v>1560.251553915339</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1775,22 +1775,22 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>717.9257992816799</v>
+        <v>751.3067536427908</v>
       </c>
       <c r="H31">
-        <v>1470.168719065512</v>
+        <v>1551.701356412015</v>
       </c>
       <c r="I31">
-        <v>2008.83557811212</v>
+        <v>2101.12374457809</v>
       </c>
       <c r="J31">
-        <v>2081.557931548239</v>
+        <v>2055.260622688695</v>
       </c>
       <c r="K31">
-        <v>1599.915087332793</v>
+        <v>1622.747869000966</v>
       </c>
       <c r="L31">
-        <v>2087.684984300539</v>
+        <v>2050.485332179278</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1813,22 +1813,22 @@
         <v>259.57</v>
       </c>
       <c r="G32">
-        <v>816.3933908255999</v>
+        <v>813.8432511071999</v>
       </c>
       <c r="H32">
-        <v>1378.616517648</v>
+        <v>1400.0936480384</v>
       </c>
       <c r="I32">
-        <v>1970.3535971472</v>
+        <v>1985.556845256</v>
       </c>
       <c r="J32">
-        <v>2337.121988625601</v>
+        <v>2337.0040758768</v>
       </c>
       <c r="K32">
-        <v>2400.458212646401</v>
+        <v>2398.5191270784</v>
       </c>
       <c r="L32">
-        <v>2400.4582126464</v>
+        <v>2398.5191270784</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1880,31 +1880,31 @@
         <v>61</v>
       </c>
       <c r="D34">
-        <v>99.10711907133735</v>
+        <v>84.12812123212527</v>
       </c>
       <c r="E34">
-        <v>83.96952053692574</v>
+        <v>71.27841137677616</v>
       </c>
       <c r="F34">
-        <v>310.6070613718931</v>
+        <v>299.6318687210402</v>
       </c>
       <c r="G34">
-        <v>691.2918408499216</v>
+        <v>674.773261474423</v>
       </c>
       <c r="H34">
-        <v>1346.318075367926</v>
+        <v>1401.337860426856</v>
       </c>
       <c r="I34">
-        <v>1801.328247051419</v>
+        <v>1906.594637073263</v>
       </c>
       <c r="J34">
-        <v>2672.549683802237</v>
+        <v>2628.407692016749</v>
       </c>
       <c r="K34">
-        <v>2649.702591508239</v>
+        <v>2677.853963134849</v>
       </c>
       <c r="L34">
-        <v>2694.126557811121</v>
+        <v>2668.707360347056</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1918,31 +1918,31 @@
         <v>62</v>
       </c>
       <c r="D35">
-        <v>54.94064528784506</v>
+        <v>69.91964312705716</v>
       </c>
       <c r="E35">
-        <v>272.0411187339959</v>
+        <v>284.7322278941455</v>
       </c>
       <c r="F35">
-        <v>273.072938628107</v>
+        <v>284.0481312789595</v>
       </c>
       <c r="G35">
-        <v>581.3136376300783</v>
+        <v>568.6659717662258</v>
       </c>
       <c r="H35">
-        <v>665.3799658958826</v>
+        <v>611.980201029506</v>
       </c>
       <c r="I35">
-        <v>1088.317633625051</v>
+        <v>980.7483829169194</v>
       </c>
       <c r="J35">
-        <v>1098.935640430221</v>
+        <v>1145.055999172612</v>
       </c>
       <c r="K35">
-        <v>1836.706578972333</v>
+        <v>1812.288412742264</v>
       </c>
       <c r="L35">
-        <v>1970.588238354252</v>
+        <v>1999.740641214856</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1959,19 +1959,19 @@
         <v>2.740000000000001</v>
       </c>
       <c r="E36">
-        <v>12.94245980019651</v>
+        <v>12.90903909832067</v>
       </c>
       <c r="F36">
-        <v>12.79619081148998</v>
+        <v>12.92651438579293</v>
       </c>
       <c r="G36">
-        <v>11.71034203374311</v>
+        <v>11.45976817585545</v>
       </c>
       <c r="H36">
-        <v>11.71034203374311</v>
+        <v>11.80136275764098</v>
       </c>
       <c r="I36">
-        <v>9.238116465716828</v>
+        <v>9.141962701003708</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1997,28 +1997,28 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>7.18754019980349</v>
+        <v>7.220960901679327</v>
       </c>
       <c r="F37">
-        <v>7.663809188510022</v>
+        <v>7.533485614207066</v>
       </c>
       <c r="G37">
-        <v>7.68777684620349</v>
+        <v>7.963887872099752</v>
       </c>
       <c r="H37">
-        <v>7.937895169403485</v>
+        <v>8.352826644782219</v>
       </c>
       <c r="I37">
-        <v>17.85279981398785</v>
+        <v>18.02701921307921</v>
       </c>
       <c r="J37">
-        <v>56.47127020980454</v>
+        <v>56.45802508980454</v>
       </c>
       <c r="K37">
-        <v>59.02792427519999</v>
+        <v>59.0279242752</v>
       </c>
       <c r="L37">
-        <v>59.2780425984</v>
+        <v>59.27804259840001</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2035,10 +2035,10 @@
         <v>1.7034436</v>
       </c>
       <c r="E38">
-        <v>1.094197514</v>
+        <v>1.180077926</v>
       </c>
       <c r="F38">
-        <v>0.6041772000000001</v>
+        <v>0.5226132780000001</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2073,22 +2073,22 @@
         <v>0.01655639999999993</v>
       </c>
       <c r="E39">
-        <v>0.665802486</v>
+        <v>0.5799220740000001</v>
       </c>
       <c r="F39">
-        <v>1.2458228</v>
+        <v>1.327386722</v>
       </c>
       <c r="G39">
-        <v>1.4298948</v>
+        <v>1.4038721208</v>
       </c>
       <c r="H39">
-        <v>1.4133384</v>
+        <v>1.3959781872</v>
       </c>
       <c r="I39">
-        <v>0.7618572000000003</v>
+        <v>0.7435726272000003</v>
       </c>
       <c r="J39">
-        <v>2.6991399072</v>
+        <v>2.7556049976</v>
       </c>
       <c r="K39">
         <v>2.99592</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>29.96979609600001</v>
+        <v>29.969796096</v>
       </c>
       <c r="K40">
         <v>186.70699584</v>
@@ -2167,7 +2167,7 @@
         <v>39.10464</v>
       </c>
       <c r="K41">
-        <v>243.6155999999999</v>
+        <v>243.6156</v>
       </c>
       <c r="L41">
         <v>966.8128000000003</v>
@@ -2231,22 +2231,22 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>4.580919360000001</v>
+        <v>5.994362880000001</v>
       </c>
       <c r="H43">
-        <v>24.71958775835297</v>
+        <v>23.67950524874066</v>
       </c>
       <c r="I43">
-        <v>19.50399705791211</v>
+        <v>23.67950524874067</v>
       </c>
       <c r="J43">
-        <v>347.7826240698402</v>
+        <v>343.771477076919</v>
       </c>
       <c r="K43">
-        <v>730.0523331763068</v>
+        <v>603.5184419481461</v>
       </c>
       <c r="L43">
-        <v>835.0368302865189</v>
+        <v>742.1001177112855</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2272,19 +2272,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>3.720286601647037</v>
+        <v>4.760369111259351</v>
       </c>
       <c r="I44">
-        <v>89.28202828725715</v>
+        <v>91.41014283644745</v>
       </c>
       <c r="J44">
-        <v>293.1982576063092</v>
+        <v>295.4271209561573</v>
       </c>
       <c r="K44">
-        <v>200.0730001143475</v>
+        <v>200.118526867108</v>
       </c>
       <c r="L44">
-        <v>249.8084532862323</v>
+        <v>235.0037836112491</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2316,13 +2316,13 @@
         <v>10.650069864</v>
       </c>
       <c r="J45">
-        <v>419.818837248</v>
+        <v>419.8188372480001</v>
       </c>
       <c r="K45">
-        <v>1201.479426601929</v>
+        <v>1199.44729392801</v>
       </c>
       <c r="L45">
-        <v>1582.7681952148</v>
+        <v>1569.018240122191</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2345,7 +2345,7 @@
         <v>29.25999999999999</v>
       </c>
       <c r="G46">
-        <v>41.057412192</v>
+        <v>41.05741219199999</v>
       </c>
       <c r="H46">
         <v>74.29004899200001</v>
@@ -2357,10 +2357,10 @@
         <v>140.755322592</v>
       </c>
       <c r="K46">
-        <v>181.6158239999998</v>
+        <v>181.6158239999999</v>
       </c>
       <c r="L46">
-        <v>207.220596192</v>
+        <v>207.2205961920001</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2392,13 +2392,13 @@
         <v>305.2991708352</v>
       </c>
       <c r="J47">
-        <v>398.1451157568</v>
+        <v>398.1451157568001</v>
       </c>
       <c r="K47">
-        <v>512.5167648</v>
+        <v>512.5167647999999</v>
       </c>
       <c r="L47">
-        <v>583.8370056000001</v>
+        <v>585.2370390239879</v>
       </c>
     </row>
     <row r="48" spans="1:12">

--- a/TEMOA_Europe_Results/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/_3_Electricity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
   <si>
     <t>tech</t>
   </si>
@@ -165,6 +165,12 @@
   </si>
   <si>
     <t>ELC_MAR_TDL_NEW</t>
+  </si>
+  <si>
+    <t>ELC_COA_CCO_FG_CCS_NEW</t>
+  </si>
+  <si>
+    <t>ELC_NGA_FG_CCS_NEW</t>
   </si>
   <si>
     <t>ELC_NGA_SOFC_CCS_NEW</t>
@@ -612,7 +618,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -661,16 +667,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D2">
-        <v>1772.750853733755</v>
+        <v>1693.872581500578</v>
       </c>
       <c r="E2">
-        <v>1499.475522079672</v>
+        <v>1181.521009050384</v>
       </c>
       <c r="F2">
-        <v>764.8394543999998</v>
+        <v>764.8394544</v>
       </c>
       <c r="G2">
         <v>509.8929696</v>
@@ -699,10 +705,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3">
-        <v>229.7345534064001</v>
+        <v>229.7345534064</v>
       </c>
       <c r="E3">
         <v>183.78764272512</v>
@@ -711,7 +717,7 @@
         <v>137.84073204384</v>
       </c>
       <c r="G3">
-        <v>91.89382136256002</v>
+        <v>91.89382136256</v>
       </c>
       <c r="H3">
         <v>45.94691068128002</v>
@@ -737,19 +743,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>1140.464592859844</v>
+        <v>1219.342865093022</v>
       </c>
       <c r="E4">
-        <v>1417.196835195209</v>
+        <v>1735.151348224493</v>
       </c>
       <c r="F4">
-        <v>793.3898135561606</v>
+        <v>793.3898135561601</v>
       </c>
       <c r="G4">
-        <v>75.23412547177938</v>
+        <v>96.02777287139807</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -775,7 +781,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>1839.14120376</v>
@@ -787,7 +793,7 @@
         <v>1103.484722256</v>
       </c>
       <c r="G5">
-        <v>735.6564815039999</v>
+        <v>735.656481504</v>
       </c>
       <c r="H5">
         <v>367.8282407520001</v>
@@ -813,10 +819,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6">
-        <v>158.5530069883199</v>
+        <v>158.55300698832</v>
       </c>
       <c r="E6">
         <v>126.842405590656</v>
@@ -828,7 +834,7 @@
         <v>63.42120279532799</v>
       </c>
       <c r="H6">
-        <v>31.71060139766399</v>
+        <v>31.71060139766397</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -851,25 +857,25 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D7">
-        <v>1086.19578925168</v>
+        <v>1086.195789251681</v>
       </c>
       <c r="E7">
-        <v>510.8946314013443</v>
+        <v>510.8946314013441</v>
       </c>
       <c r="F7">
         <v>1420.753473551007</v>
       </c>
       <c r="G7">
-        <v>155.428974749908</v>
+        <v>207.0763063524772</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>41.44274591134169</v>
+        <v>60.15573501317662</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -889,7 +895,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D8">
         <v>237.92176944</v>
@@ -901,10 +907,10 @@
         <v>121.7100384</v>
       </c>
       <c r="G8">
-        <v>91.28252880000002</v>
+        <v>91.28252880000001</v>
       </c>
       <c r="H8">
-        <v>60.8550192</v>
+        <v>60.85501919999999</v>
       </c>
       <c r="I8">
         <v>30.42750960000001</v>
@@ -927,10 +933,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D9">
-        <v>17.73561871008001</v>
+        <v>17.73561871008</v>
       </c>
       <c r="E9">
         <v>14.188494968064</v>
@@ -939,7 +945,7 @@
         <v>10.081299056256</v>
       </c>
       <c r="G9">
-        <v>6.720866037504</v>
+        <v>6.720866037504001</v>
       </c>
       <c r="H9">
         <v>3.360433018752</v>
@@ -965,13 +971,13 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>56.51395703193595</v>
+        <v>56.51395703193594</v>
       </c>
       <c r="F10">
         <v>28.74866254374398</v>
@@ -1003,10 +1009,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11">
-        <v>35.58261184992</v>
+        <v>35.58261184992001</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1041,7 +1047,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>1719.11061504</v>
@@ -1053,16 +1059,16 @@
         <v>1296.1548288</v>
       </c>
       <c r="G12">
-        <v>1015.460713301958</v>
+        <v>1010.101595819276</v>
       </c>
       <c r="H12">
-        <v>759.091465671033</v>
+        <v>750.3514159121786</v>
       </c>
       <c r="I12">
-        <v>516.275910262641</v>
+        <v>504.7269342307926</v>
       </c>
       <c r="J12">
-        <v>254.8016800653801</v>
+        <v>253.413392730082</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1079,34 +1085,34 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>31.86037540313118</v>
+        <v>31.86037540313119</v>
       </c>
       <c r="E13">
-        <v>27.63986929805649</v>
+        <v>27.63986929805576</v>
       </c>
       <c r="F13">
-        <v>28.58811488883383</v>
+        <v>47.01151869499397</v>
       </c>
       <c r="G13">
-        <v>34.83633026766664</v>
+        <v>34.83633026766666</v>
       </c>
       <c r="H13">
-        <v>34.83633026766665</v>
+        <v>34.83633026766666</v>
       </c>
       <c r="I13">
-        <v>27.75028642391662</v>
+        <v>27.75028642391664</v>
       </c>
       <c r="J13">
-        <v>24.95508187098887</v>
+        <v>5.521229702799998</v>
       </c>
       <c r="K13">
-        <v>5.521229702799996</v>
+        <v>5.521229702799998</v>
       </c>
       <c r="L13">
-        <v>5.686984057599997</v>
+        <v>5.686984057599998</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1117,16 +1123,16 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D14">
-        <v>278.0398422244689</v>
+        <v>278.0398422244684</v>
       </c>
       <c r="E14">
-        <v>562.437579049544</v>
+        <v>562.4375790495445</v>
       </c>
       <c r="F14">
-        <v>846.4978889787657</v>
+        <v>846.4978889787662</v>
       </c>
       <c r="G14">
         <v>1094.10159731616</v>
@@ -1138,13 +1144,13 @@
         <v>1646.79166948608</v>
       </c>
       <c r="J14">
-        <v>1926.28339130304</v>
+        <v>1926.283391303039</v>
       </c>
       <c r="K14">
-        <v>2092.618543003201</v>
+        <v>2089.290309249599</v>
       </c>
       <c r="L14">
-        <v>2157.42995208</v>
+        <v>2157.429952079999</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1155,7 +1161,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1179,10 +1185,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>232.5131714448</v>
+        <v>232.1433676944</v>
       </c>
       <c r="L15">
-        <v>239.71443912</v>
+        <v>239.7144391199999</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1193,7 +1199,7 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16">
         <v>102.9691673324</v>
@@ -1202,25 +1208,25 @@
         <v>102.9691673324</v>
       </c>
       <c r="F16">
-        <v>102.9691673324</v>
+        <v>84.54576352623985</v>
       </c>
       <c r="G16">
-        <v>333.0691267879167</v>
+        <v>239.3581521323334</v>
       </c>
       <c r="H16">
-        <v>247.9543138523334</v>
+        <v>248.3001849323334</v>
       </c>
       <c r="I16">
-        <v>184.3595254629448</v>
+        <v>190.9684919267667</v>
       </c>
       <c r="J16">
-        <v>197.6203296490111</v>
+        <v>189.833698744194</v>
       </c>
       <c r="K16">
-        <v>179.4954604090112</v>
+        <v>115.7078191724</v>
       </c>
       <c r="L16">
-        <v>192.0065274490111</v>
+        <v>53.64574873919999</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1231,19 +1237,19 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D17">
-        <v>3087.00928</v>
+        <v>3087.009280000001</v>
       </c>
       <c r="E17">
-        <v>2860.23928</v>
+        <v>2860.239280000001</v>
       </c>
       <c r="F17">
-        <v>2226.290955999999</v>
+        <v>2226.290956</v>
       </c>
       <c r="G17">
-        <v>2190.616704</v>
+        <v>2190.616704000014</v>
       </c>
       <c r="H17">
         <v>1825.51392</v>
@@ -1252,10 +1258,10 @@
         <v>1460.411136</v>
       </c>
       <c r="J17">
-        <v>281.5534079999999</v>
+        <v>281.553408</v>
       </c>
       <c r="K17">
-        <v>140.7767039999999</v>
+        <v>140.776704</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1269,7 +1275,7 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D18">
         <v>210.8707200000006</v>
@@ -1278,25 +1284,25 @@
         <v>210.8707200000006</v>
       </c>
       <c r="F18">
+        <v>400.6990439999693</v>
+      </c>
+      <c r="G18">
+        <v>400.6990440000006</v>
+      </c>
+      <c r="H18">
+        <v>400.6990440000006</v>
+      </c>
+      <c r="I18">
         <v>400.6990440000005</v>
       </c>
-      <c r="G18">
-        <v>400.6990440000005</v>
-      </c>
-      <c r="H18">
-        <v>400.6990440000005</v>
-      </c>
-      <c r="I18">
-        <v>400.6990440000006</v>
-      </c>
       <c r="J18">
-        <v>400.6990440000006</v>
+        <v>400.6990440000016</v>
       </c>
       <c r="K18">
         <v>400.6990440000005</v>
       </c>
       <c r="L18">
-        <v>400.6990440000005</v>
+        <v>400.6990440000006</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1307,7 +1313,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1322,19 +1328,19 @@
         <v>238.34646</v>
       </c>
       <c r="H19">
-        <v>476.69292</v>
+        <v>476.6929199999992</v>
       </c>
       <c r="I19">
-        <v>715.0393800000002</v>
+        <v>715.0393799999999</v>
       </c>
       <c r="J19">
         <v>1817.732412</v>
       </c>
       <c r="K19">
-        <v>1817.732412</v>
+        <v>1817.732412000001</v>
       </c>
       <c r="L19">
-        <v>1817.732412</v>
+        <v>1817.732411999998</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1345,22 +1351,22 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D20">
-        <v>30.26822599440001</v>
+        <v>30.2682259944</v>
       </c>
       <c r="E20">
-        <v>24.21458079552001</v>
+        <v>24.21458079552</v>
       </c>
       <c r="F20">
-        <v>18.16093559664</v>
+        <v>18.16093559664004</v>
       </c>
       <c r="G20">
         <v>12.10729039776</v>
       </c>
       <c r="H20">
-        <v>6.05364519888</v>
+        <v>6.053645198880001</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1383,10 +1389,10 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21">
-        <v>208.815624</v>
+        <v>197.825328</v>
       </c>
       <c r="E21">
         <v>158.2602624</v>
@@ -1395,7 +1401,7 @@
         <v>118.6951968</v>
       </c>
       <c r="G21">
-        <v>79.13013119999999</v>
+        <v>79.13013120000002</v>
       </c>
       <c r="H21">
         <v>39.5650656</v>
@@ -1421,31 +1427,31 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22">
-        <v>235.9663280745211</v>
+        <v>246.9566240745211</v>
       </c>
       <c r="E22">
-        <v>373.0384092174389</v>
+        <v>276.5754264841271</v>
       </c>
       <c r="F22">
-        <v>457.9514747453259</v>
+        <v>490.202396320673</v>
       </c>
       <c r="G22">
-        <v>52.20646812096715</v>
+        <v>89.48981272161582</v>
       </c>
       <c r="H22">
-        <v>0.3034099187054243</v>
+        <v>55.88307318055674</v>
       </c>
       <c r="I22">
-        <v>28.42962635596971</v>
+        <v>31.36102165148401</v>
       </c>
       <c r="J22">
-        <v>78.94679769048855</v>
+        <v>77.21456416211669</v>
       </c>
       <c r="K22">
-        <v>134.3490130202587</v>
+        <v>293.2404101570497</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1459,31 +1465,31 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23">
         <v>49.44982193107901</v>
       </c>
       <c r="E23">
-        <v>185.0967475870411</v>
+        <v>281.5597303203527</v>
       </c>
       <c r="F23">
-        <v>245.3523928580342</v>
+        <v>213.1014712826866</v>
       </c>
       <c r="G23">
-        <v>264.572608307756</v>
+        <v>263.3017448733472</v>
       </c>
       <c r="H23">
-        <v>419.9834828740465</v>
+        <v>321.7692798515706</v>
       </c>
       <c r="I23">
-        <v>426.7738153583289</v>
+        <v>327.4724730881968</v>
       </c>
       <c r="J23">
-        <v>397.1873249701569</v>
+        <v>425.2720801597806</v>
       </c>
       <c r="K23">
-        <v>187.8168161467451</v>
+        <v>327.4737338644053</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1497,10 +1503,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D24">
-        <v>1.47806456832</v>
+        <v>1.478064568319934</v>
       </c>
       <c r="E24">
         <v>1.330258111488</v>
@@ -1512,7 +1518,7 @@
         <v>0.8704158013440004</v>
       </c>
       <c r="H24">
-        <v>0.640494646272</v>
+        <v>0.6404946462720001</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1535,10 +1541,10 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D25">
-        <v>20.435328</v>
+        <v>20.43532800000001</v>
       </c>
       <c r="E25">
         <v>17.51599542857143</v>
@@ -1550,13 +1556,13 @@
         <v>11.80837588114286</v>
       </c>
       <c r="H25">
-        <v>8.856281910857144</v>
+        <v>8.856281910857142</v>
       </c>
       <c r="I25">
-        <v>5.941975577847995</v>
+        <v>5.904187940571427</v>
       </c>
       <c r="J25">
-        <v>2.952093970285716</v>
+        <v>3.050702537142859</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1573,34 +1579,34 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D26">
         <v>16.73660743167999</v>
       </c>
       <c r="E26">
-        <v>35.30374645994058</v>
+        <v>35.30374645994057</v>
       </c>
       <c r="F26">
         <v>65.70300018644119</v>
       </c>
       <c r="G26">
-        <v>89.4648136293215</v>
+        <v>88.88017116660359</v>
       </c>
       <c r="H26">
-        <v>109.9443385944521</v>
+        <v>108.4757733700143</v>
       </c>
       <c r="I26">
-        <v>131.2260706708899</v>
+        <v>131.013738309687</v>
       </c>
       <c r="J26">
-        <v>155.2316727859171</v>
+        <v>154.8455334078919</v>
       </c>
       <c r="K26">
         <v>178.115328</v>
       </c>
       <c r="L26">
-        <v>196.280064</v>
+        <v>196.2800640000001</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1611,13 +1617,13 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D27">
-        <v>237.6764884596298</v>
+        <v>241.9014778021906</v>
       </c>
       <c r="E27">
-        <v>204.4181647406179</v>
+        <v>226.136037333402</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -1649,22 +1655,22 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D28">
-        <v>312.4035115403702</v>
+        <v>308.1785221978095</v>
       </c>
       <c r="E28">
-        <v>323.9652520585946</v>
+        <v>452.3282637316387</v>
       </c>
       <c r="F28">
-        <v>376.9729514105603</v>
+        <v>516.8622710950194</v>
       </c>
       <c r="G28">
-        <v>392.2432922082385</v>
+        <v>525.3163949349766</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>130.4178350701759</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1687,22 +1693,22 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>195.5426127452605</v>
+        <v>304.5556989349595</v>
       </c>
       <c r="F29">
-        <v>195.5566127452605</v>
+        <v>301.2753242262481</v>
       </c>
       <c r="G29">
-        <v>218.7786018950997</v>
+        <v>329.585758831241</v>
       </c>
       <c r="H29">
-        <v>239.1731615146157</v>
+        <v>329.585758831241</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1725,34 +1731,34 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>259.0939704555269</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>958.1604358441796</v>
+        <v>712.5524046787326</v>
       </c>
       <c r="G30">
-        <v>1077.579677462896</v>
+        <v>809.4402562638381</v>
       </c>
       <c r="H30">
-        <v>1287.192235855125</v>
+        <v>1048.064951548859</v>
       </c>
       <c r="I30">
-        <v>1189.229245857794</v>
+        <v>1259.479671102629</v>
       </c>
       <c r="J30">
-        <v>1309.581050551405</v>
+        <v>1266.756380326356</v>
       </c>
       <c r="K30">
-        <v>1837.923968367435</v>
+        <v>1674.772574320179</v>
       </c>
       <c r="L30">
-        <v>1560.251553915339</v>
+        <v>2794.285016936494</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1763,7 +1769,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1775,22 +1781,22 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>751.3067536427908</v>
+        <v>724.0519072322422</v>
       </c>
       <c r="H31">
-        <v>1551.701356412015</v>
+        <v>1518.472144941349</v>
       </c>
       <c r="I31">
-        <v>2101.12374457809</v>
+        <v>1996.059830125815</v>
       </c>
       <c r="J31">
-        <v>2055.260622688695</v>
+        <v>2080.626331541902</v>
       </c>
       <c r="K31">
-        <v>1622.747869000966</v>
+        <v>1823.951358268027</v>
       </c>
       <c r="L31">
-        <v>2050.485332179278</v>
+        <v>907.3895904022701</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1801,7 +1807,7 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1813,22 +1819,22 @@
         <v>259.57</v>
       </c>
       <c r="G32">
-        <v>813.8432511071999</v>
+        <v>816.3933908255999</v>
       </c>
       <c r="H32">
-        <v>1400.0936480384</v>
+        <v>1385.486319888</v>
       </c>
       <c r="I32">
-        <v>1985.556845256</v>
+        <v>1970.3535971472</v>
       </c>
       <c r="J32">
-        <v>2337.0040758768</v>
+        <v>2334.629212891201</v>
       </c>
       <c r="K32">
-        <v>2398.5191270784</v>
+        <v>2398.6272072576</v>
       </c>
       <c r="L32">
-        <v>2398.5191270784</v>
+        <v>2430.4305946944</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1839,7 +1845,7 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D33">
         <v>10.1822356408176</v>
@@ -1877,34 +1883,34 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D34">
-        <v>84.12812123212527</v>
+        <v>36.32357756988254</v>
       </c>
       <c r="E34">
-        <v>71.27841137677616</v>
+        <v>72.54077918396928</v>
       </c>
       <c r="F34">
-        <v>299.6318687210402</v>
+        <v>300.7235565873525</v>
       </c>
       <c r="G34">
-        <v>674.773261474423</v>
+        <v>705.1151283339988</v>
       </c>
       <c r="H34">
-        <v>1401.337860426856</v>
+        <v>1357.887572170604</v>
       </c>
       <c r="I34">
-        <v>1906.594637073263</v>
+        <v>1860.68033862977</v>
       </c>
       <c r="J34">
-        <v>2628.407692016749</v>
+        <v>2683.207251060388</v>
       </c>
       <c r="K34">
-        <v>2677.853963134849</v>
+        <v>2802.803037558951</v>
       </c>
       <c r="L34">
-        <v>2668.707360347056</v>
+        <v>2837.5171075586</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1915,34 +1921,34 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D35">
-        <v>69.91964312705716</v>
+        <v>117.7241867892999</v>
       </c>
       <c r="E35">
-        <v>284.7322278941455</v>
+        <v>283.4698600869524</v>
       </c>
       <c r="F35">
-        <v>284.0481312789595</v>
+        <v>282.9564434126474</v>
       </c>
       <c r="G35">
-        <v>568.6659717662258</v>
+        <v>555.9294407349786</v>
       </c>
       <c r="H35">
-        <v>611.980201029506</v>
+        <v>664.8400929269581</v>
       </c>
       <c r="I35">
-        <v>980.7483829169194</v>
+        <v>1052.700083208469</v>
       </c>
       <c r="J35">
-        <v>1145.055999172612</v>
+        <v>1125.613619219611</v>
       </c>
       <c r="K35">
-        <v>1812.288412742264</v>
+        <v>1703.610054451779</v>
       </c>
       <c r="L35">
-        <v>1999.740641214856</v>
+        <v>2156.458477091103</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1953,25 +1959,25 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D36">
         <v>2.740000000000001</v>
       </c>
       <c r="E36">
-        <v>12.90903909832067</v>
+        <v>12.95917015113442</v>
       </c>
       <c r="F36">
-        <v>12.92651438579293</v>
+        <v>12.95301933635117</v>
       </c>
       <c r="G36">
-        <v>11.45976817585545</v>
+        <v>11.54244050362755</v>
       </c>
       <c r="H36">
-        <v>11.80136275764098</v>
+        <v>11.71806812067673</v>
       </c>
       <c r="I36">
-        <v>9.141962701003708</v>
+        <v>9.228813112650444</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1991,34 +1997,34 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>7.220960901679327</v>
+        <v>7.170829848865572</v>
       </c>
       <c r="F37">
-        <v>7.533485614207066</v>
+        <v>7.50698066364883</v>
       </c>
       <c r="G37">
-        <v>7.963887872099752</v>
+        <v>7.842909792314753</v>
       </c>
       <c r="H37">
-        <v>8.352826644782219</v>
+        <v>8.093028115514748</v>
       </c>
       <c r="I37">
-        <v>18.02701921307921</v>
+        <v>17.83608946304994</v>
       </c>
       <c r="J37">
-        <v>56.45802508980454</v>
+        <v>57.29717537684284</v>
       </c>
       <c r="K37">
-        <v>59.0279242752</v>
+        <v>59.02792427520001</v>
       </c>
       <c r="L37">
-        <v>59.27804259840001</v>
+        <v>59.27804259839999</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2029,16 +2035,16 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>1.7034436</v>
+        <v>1.70551315</v>
       </c>
       <c r="E38">
-        <v>1.180077926</v>
+        <v>1.173563114</v>
       </c>
       <c r="F38">
-        <v>0.5226132780000001</v>
+        <v>0.6029565912</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -2067,34 +2073,34 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D39">
-        <v>0.01655639999999993</v>
+        <v>0.01448684999999994</v>
       </c>
       <c r="E39">
-        <v>0.5799220740000001</v>
+        <v>0.586436886</v>
       </c>
       <c r="F39">
-        <v>1.327386722</v>
+        <v>1.247043408800001</v>
       </c>
       <c r="G39">
-        <v>1.4038721208</v>
+        <v>1.4044547088</v>
       </c>
       <c r="H39">
-        <v>1.3959781872</v>
+        <v>1.3956364152</v>
       </c>
       <c r="I39">
-        <v>0.7435726272000003</v>
+        <v>0.7618572000000003</v>
       </c>
       <c r="J39">
-        <v>2.7556049976</v>
+        <v>2.7239224728</v>
       </c>
       <c r="K39">
-        <v>2.99592</v>
+        <v>2.995920000000001</v>
       </c>
       <c r="L39">
-        <v>2.99592</v>
+        <v>3.185136000000001</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2105,7 +2111,7 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -2126,13 +2132,13 @@
         <v>0</v>
       </c>
       <c r="J40">
-        <v>29.969796096</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>186.70699584</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>171.722097792</v>
+        <v>35.65043183990453</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2143,7 +2149,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2161,16 +2167,16 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>6.3072</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>39.10464</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>243.6156</v>
+        <v>78.30817689600001</v>
       </c>
       <c r="L41">
-        <v>966.8128000000003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2181,7 +2187,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2202,13 +2208,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>14.984898048</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>14.984898048</v>
       </c>
       <c r="L42">
-        <v>468.7059199999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2219,7 +2225,7 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2231,22 +2237,22 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>5.994362880000001</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>23.67950524874066</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>23.67950524874067</v>
+        <v>3.1536</v>
       </c>
       <c r="J43">
-        <v>343.771477076919</v>
+        <v>19.55232</v>
       </c>
       <c r="K43">
-        <v>603.5184419481461</v>
+        <v>121.72896</v>
       </c>
       <c r="L43">
-        <v>742.1001177112855</v>
+        <v>533.4609330126302</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2257,7 +2263,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2272,19 +2278,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>4.760369111259351</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>91.41014283644745</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>295.4271209561573</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>200.118526867108</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>235.0037836112491</v>
+        <v>184.2984269873698</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2295,7 +2301,7 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -2307,22 +2313,22 @@
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0</v>
+        <v>4.580919359999999</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>4.580919359999999</v>
       </c>
       <c r="I45">
-        <v>10.650069864</v>
+        <v>3.39453504</v>
       </c>
       <c r="J45">
-        <v>419.8188372480001</v>
+        <v>304.6169862240623</v>
       </c>
       <c r="K45">
-        <v>1199.44729392801</v>
+        <v>611.2289075672224</v>
       </c>
       <c r="L45">
-        <v>1569.018240122191</v>
+        <v>967.9587238395269</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2333,34 +2339,34 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D46">
-        <v>25.08</v>
+        <v>0</v>
       </c>
       <c r="E46">
-        <v>27.17</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>29.25999999999999</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>41.05741219199999</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>74.29004899200001</v>
+        <v>23.858955</v>
       </c>
       <c r="I46">
-        <v>107.522685792</v>
+        <v>120.9226091900274</v>
       </c>
       <c r="J46">
-        <v>140.755322592</v>
+        <v>299.0083350213849</v>
       </c>
       <c r="K46">
-        <v>181.6158239999999</v>
+        <v>201.9504669151563</v>
       </c>
       <c r="L46">
-        <v>207.2205961920001</v>
+        <v>309.8352235365232</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2371,34 +2377,34 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D47">
-        <v>175.75</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>190.475</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>205.2</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>119.607280992</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>212.4532259136</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>305.2991708352</v>
+        <v>10.650069864</v>
       </c>
       <c r="J47">
-        <v>398.1451157568001</v>
+        <v>419.818837248</v>
       </c>
       <c r="K47">
-        <v>512.5167647999999</v>
+        <v>1054.467158883473</v>
       </c>
       <c r="L47">
-        <v>585.2370390239879</v>
+        <v>3576.447633347668</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2409,34 +2415,34 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D48">
-        <v>116.85</v>
+        <v>25.08</v>
       </c>
       <c r="E48">
-        <v>126.825</v>
+        <v>27.17</v>
       </c>
       <c r="F48">
-        <v>136.8</v>
+        <v>29.26</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>38.889312192</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>74.29004899200001</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>107.522685792</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>140.755322592</v>
       </c>
       <c r="K48">
-        <v>0</v>
+        <v>173.987959392</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>209.0418001920002</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2447,34 +2453,34 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D49">
-        <v>37.525</v>
+        <v>175.75</v>
       </c>
       <c r="E49">
-        <v>46.8825</v>
+        <v>190.475</v>
       </c>
       <c r="F49">
-        <v>56.24</v>
+        <v>205.2</v>
       </c>
       <c r="G49">
-        <v>132.47737488</v>
+        <v>119.607280992</v>
       </c>
       <c r="H49">
-        <v>138.51967248</v>
+        <v>212.4532259136</v>
       </c>
       <c r="I49">
-        <v>144.56197008</v>
+        <v>305.2991708352</v>
       </c>
       <c r="J49">
-        <v>150.60426768</v>
+        <v>398.1451157568</v>
       </c>
       <c r="K49">
-        <v>163.51416</v>
+        <v>490.9910606784001</v>
       </c>
       <c r="L49">
-        <v>162.68886288</v>
+        <v>587.9074958784</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2485,16 +2491,16 @@
         <v>60</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>116.85</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>126.825</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>136.8</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -2512,6 +2518,82 @@
         <v>0</v>
       </c>
       <c r="L50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>65</v>
+      </c>
+      <c r="D51">
+        <v>37.525</v>
+      </c>
+      <c r="E51">
+        <v>46.8825</v>
+      </c>
+      <c r="F51">
+        <v>56.24</v>
+      </c>
+      <c r="G51">
+        <v>129.1610881166945</v>
+      </c>
+      <c r="H51">
+        <v>138.51967248</v>
+      </c>
+      <c r="I51">
+        <v>144.56197008</v>
+      </c>
+      <c r="J51">
+        <v>150.60426768</v>
+      </c>
+      <c r="K51">
+        <v>156.64656528</v>
+      </c>
+      <c r="L51">
+        <v>162.95376528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
         <v>30.211488</v>
       </c>
     </row>

--- a/TEMOA_Europe_Results/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/_3_Electricity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
   <si>
     <t>tech</t>
   </si>
@@ -116,6 +116,9 @@
     <t>ELC_BIO_GSF_CEN_NEW</t>
   </si>
   <si>
+    <t>ELC_BIO_GSF_DEC_NEW</t>
+  </si>
+  <si>
     <t>ELC_BIO_CRP_GSF_NEW</t>
   </si>
   <si>
@@ -167,28 +170,16 @@
     <t>ELC_MAR_TDL_NEW</t>
   </si>
   <si>
-    <t>ELC_COA_CCO_FG_CCS_NEW</t>
-  </si>
-  <si>
-    <t>ELC_NGA_FG_CCS_NEW</t>
-  </si>
-  <si>
     <t>ELC_NGA_SOFC_CCS_NEW</t>
   </si>
   <si>
     <t>ELC_BIO_CRP_COM_CCS_NEW</t>
   </si>
   <si>
-    <t>ELC_BIO_COM_CCS_NEW</t>
-  </si>
-  <si>
     <t>ELC_STG_CEN_BTT_NEW</t>
   </si>
   <si>
     <t>ELC_STG_DIS_BTT_NEW</t>
-  </si>
-  <si>
-    <t>ELC_HH2_PEMFC_NEW</t>
   </si>
   <si>
     <t>IMP_ELC_AFR</t>
@@ -618,7 +609,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:L49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -667,16 +658,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>1693.872581500578</v>
+        <v>1708.27071243929</v>
       </c>
       <c r="E2">
-        <v>1181.521009050384</v>
+        <v>1309.588594768356</v>
       </c>
       <c r="F2">
-        <v>764.8394544</v>
+        <v>764.8394543999999</v>
       </c>
       <c r="G2">
         <v>509.8929696</v>
@@ -705,19 +696,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D3">
-        <v>229.7345534064</v>
+        <v>229.7345534064001</v>
       </c>
       <c r="E3">
-        <v>183.78764272512</v>
+        <v>183.7876427251201</v>
       </c>
       <c r="F3">
         <v>137.84073204384</v>
       </c>
       <c r="G3">
-        <v>91.89382136256</v>
+        <v>91.89382136256002</v>
       </c>
       <c r="H3">
         <v>45.94691068128002</v>
@@ -743,19 +734,19 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>1219.342865093022</v>
+        <v>1204.94473415431</v>
       </c>
       <c r="E4">
-        <v>1735.151348224493</v>
+        <v>1607.083762506525</v>
       </c>
       <c r="F4">
         <v>793.3898135561601</v>
       </c>
       <c r="G4">
-        <v>96.02777287139807</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -781,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D5">
         <v>1839.14120376</v>
@@ -793,7 +784,7 @@
         <v>1103.484722256</v>
       </c>
       <c r="G5">
-        <v>735.656481504</v>
+        <v>735.6564815039999</v>
       </c>
       <c r="H5">
         <v>367.8282407520001</v>
@@ -819,10 +810,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>158.55300698832</v>
+        <v>158.5530069883199</v>
       </c>
       <c r="E6">
         <v>126.842405590656</v>
@@ -834,7 +825,7 @@
         <v>63.42120279532799</v>
       </c>
       <c r="H6">
-        <v>31.71060139766397</v>
+        <v>31.71060139766399</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -857,25 +848,25 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D7">
-        <v>1086.195789251681</v>
+        <v>1086.19578925168</v>
       </c>
       <c r="E7">
-        <v>510.8946314013441</v>
+        <v>510.8946314013442</v>
       </c>
       <c r="F7">
         <v>1420.753473551007</v>
       </c>
       <c r="G7">
-        <v>207.0763063524772</v>
+        <v>266.822082064881</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>60.15573501317662</v>
+        <v>52.76117525328775</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -895,10 +886,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>237.92176944</v>
+        <v>237.9217694400001</v>
       </c>
       <c r="E8">
         <v>152.137548</v>
@@ -910,7 +901,7 @@
         <v>91.28252880000001</v>
       </c>
       <c r="H8">
-        <v>60.85501919999999</v>
+        <v>60.85501920000001</v>
       </c>
       <c r="I8">
         <v>30.42750960000001</v>
@@ -933,7 +924,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D9">
         <v>17.73561871008</v>
@@ -948,7 +939,7 @@
         <v>6.720866037504001</v>
       </c>
       <c r="H9">
-        <v>3.360433018752</v>
+        <v>3.360433018752001</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -971,7 +962,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -980,10 +971,10 @@
         <v>56.51395703193594</v>
       </c>
       <c r="F10">
-        <v>28.74866254374398</v>
+        <v>28.74866254374396</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>3.328259304713454</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1009,7 +1000,7 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D11">
         <v>35.58261184992001</v>
@@ -1047,10 +1038,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12">
-        <v>1719.11061504</v>
+        <v>1719.110615040001</v>
       </c>
       <c r="E12">
         <v>1473.52338432</v>
@@ -1059,16 +1050,16 @@
         <v>1296.1548288</v>
       </c>
       <c r="G12">
-        <v>1010.101595819276</v>
+        <v>1012.599990369867</v>
       </c>
       <c r="H12">
-        <v>750.3514159121786</v>
+        <v>753.5187381990951</v>
       </c>
       <c r="I12">
-        <v>504.7269342307926</v>
+        <v>507.1443997966991</v>
       </c>
       <c r="J12">
-        <v>253.413392730082</v>
+        <v>252.6025593240049</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1085,25 +1076,25 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D13">
-        <v>31.86037540313119</v>
+        <v>36.5368319282295</v>
       </c>
       <c r="E13">
-        <v>27.63986929805576</v>
+        <v>32.31632582315472</v>
       </c>
       <c r="F13">
-        <v>47.01151869499397</v>
+        <v>33.26457141393272</v>
       </c>
       <c r="G13">
-        <v>34.83633026766666</v>
+        <v>34.83633026766665</v>
       </c>
       <c r="H13">
-        <v>34.83633026766666</v>
+        <v>39.93160178766666</v>
       </c>
       <c r="I13">
-        <v>27.75028642391664</v>
+        <v>32.84555794391664</v>
       </c>
       <c r="J13">
         <v>5.521229702799998</v>
@@ -1112,7 +1103,7 @@
         <v>5.521229702799998</v>
       </c>
       <c r="L13">
-        <v>5.686984057599998</v>
+        <v>5.686984057599997</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1123,34 +1114,34 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D14">
-        <v>278.0398422244684</v>
+        <v>278.0398422244688</v>
       </c>
       <c r="E14">
-        <v>562.4375790495445</v>
+        <v>562.437579049544</v>
       </c>
       <c r="F14">
-        <v>846.4978889787662</v>
+        <v>846.4978889787653</v>
       </c>
       <c r="G14">
         <v>1094.10159731616</v>
       </c>
       <c r="H14">
-        <v>1369.363348149119</v>
+        <v>1369.36334814912</v>
       </c>
       <c r="I14">
         <v>1646.79166948608</v>
       </c>
       <c r="J14">
-        <v>1926.283391303039</v>
+        <v>1926.28339130304</v>
       </c>
       <c r="K14">
         <v>2089.290309249599</v>
       </c>
       <c r="L14">
-        <v>2157.429952079999</v>
+        <v>2157.42995208</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1161,7 +1152,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1188,7 +1179,7 @@
         <v>232.1433676944</v>
       </c>
       <c r="L15">
-        <v>239.7144391199999</v>
+        <v>239.71443912</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1199,34 +1190,34 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>102.9691673324</v>
+        <v>98.29271080730156</v>
       </c>
       <c r="E16">
-        <v>102.9691673324</v>
+        <v>98.29271080730156</v>
       </c>
       <c r="F16">
-        <v>84.54576352623985</v>
+        <v>98.29271080730156</v>
       </c>
       <c r="G16">
+        <v>239.9232688609631</v>
+      </c>
+      <c r="H16">
         <v>239.3581521323334</v>
       </c>
-      <c r="H16">
-        <v>248.3001849323334</v>
-      </c>
       <c r="I16">
-        <v>190.9684919267667</v>
+        <v>193.2098022596737</v>
       </c>
       <c r="J16">
-        <v>189.833698744194</v>
+        <v>191.2803322090111</v>
       </c>
       <c r="K16">
-        <v>115.7078191724</v>
+        <v>93.46817590277293</v>
       </c>
       <c r="L16">
-        <v>53.64574873919999</v>
+        <v>177.2720851723565</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1237,19 +1228,19 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>3087.009280000001</v>
+        <v>3087.00928</v>
       </c>
       <c r="E17">
-        <v>2860.239280000001</v>
+        <v>2860.23928</v>
       </c>
       <c r="F17">
-        <v>2226.290956</v>
+        <v>2226.290955999999</v>
       </c>
       <c r="G17">
-        <v>2190.616704000014</v>
+        <v>2190.616704</v>
       </c>
       <c r="H17">
         <v>1825.51392</v>
@@ -1258,10 +1249,10 @@
         <v>1460.411136</v>
       </c>
       <c r="J17">
-        <v>281.553408</v>
+        <v>281.5534079999999</v>
       </c>
       <c r="K17">
-        <v>140.776704</v>
+        <v>140.7767040000003</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1275,28 +1266,28 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D18">
         <v>210.8707200000006</v>
       </c>
       <c r="E18">
-        <v>210.8707200000006</v>
+        <v>210.8707199999685</v>
       </c>
       <c r="F18">
-        <v>400.6990439999693</v>
+        <v>400.6990440000088</v>
       </c>
       <c r="G18">
         <v>400.6990440000006</v>
       </c>
       <c r="H18">
-        <v>400.6990440000006</v>
+        <v>400.6990440000005</v>
       </c>
       <c r="I18">
         <v>400.6990440000005</v>
       </c>
       <c r="J18">
-        <v>400.6990440000016</v>
+        <v>400.6990440000005</v>
       </c>
       <c r="K18">
         <v>400.6990440000005</v>
@@ -1313,7 +1304,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1325,22 +1316,22 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>238.34646</v>
+        <v>238.3464600000072</v>
       </c>
       <c r="H19">
-        <v>476.6929199999992</v>
+        <v>476.69292</v>
       </c>
       <c r="I19">
-        <v>715.0393799999999</v>
+        <v>715.0393799999996</v>
       </c>
       <c r="J19">
         <v>1817.732412</v>
       </c>
       <c r="K19">
-        <v>1817.732412000001</v>
+        <v>1817.732412</v>
       </c>
       <c r="L19">
-        <v>1817.732411999998</v>
+        <v>1817.732412</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1351,7 +1342,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D20">
         <v>30.2682259944</v>
@@ -1360,13 +1351,13 @@
         <v>24.21458079552</v>
       </c>
       <c r="F20">
-        <v>18.16093559664004</v>
+        <v>18.16093559664</v>
       </c>
       <c r="G20">
         <v>12.10729039776</v>
       </c>
       <c r="H20">
-        <v>6.053645198880001</v>
+        <v>6.05364519888</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1389,7 +1380,7 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>197.825328</v>
@@ -1401,7 +1392,7 @@
         <v>118.6951968</v>
       </c>
       <c r="G21">
-        <v>79.13013120000002</v>
+        <v>79.13013120000001</v>
       </c>
       <c r="H21">
         <v>39.5650656</v>
@@ -1427,34 +1418,34 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D22">
-        <v>246.9566240745211</v>
+        <v>155.3692899336686</v>
       </c>
       <c r="E22">
-        <v>276.5754264841271</v>
+        <v>209.3777025884799</v>
       </c>
       <c r="F22">
-        <v>490.202396320673</v>
+        <v>385.5311573025563</v>
       </c>
       <c r="G22">
-        <v>89.48981272161582</v>
+        <v>88.23451391599778</v>
       </c>
       <c r="H22">
-        <v>55.88307318055674</v>
+        <v>74.54707359308163</v>
       </c>
       <c r="I22">
-        <v>31.36102165148401</v>
+        <v>31.40290443270433</v>
       </c>
       <c r="J22">
-        <v>77.21456416211669</v>
+        <v>166.0131927078669</v>
       </c>
       <c r="K22">
-        <v>293.2404101570497</v>
+        <v>383.1412087399097</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>276.6187224386414</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1465,31 +1456,31 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D23">
-        <v>49.44982193107901</v>
+        <v>91.58733414085233</v>
       </c>
       <c r="E23">
-        <v>281.5597303203527</v>
+        <v>104.671239018117</v>
       </c>
       <c r="F23">
-        <v>213.1014712826866</v>
+        <v>104.6712390181169</v>
       </c>
       <c r="G23">
-        <v>263.3017448733472</v>
+        <v>27.73787833980099</v>
       </c>
       <c r="H23">
-        <v>321.7692798515706</v>
+        <v>27.73787833980099</v>
       </c>
       <c r="I23">
-        <v>327.4724730881968</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>425.2720801597806</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>327.4737338644053</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1503,34 +1494,34 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D24">
-        <v>1.478064568319934</v>
+        <v>49.44982193107901</v>
       </c>
       <c r="E24">
-        <v>1.330258111488</v>
+        <v>244.086215197883</v>
       </c>
       <c r="F24">
-        <v>1.100336956416</v>
+        <v>213.1014712826866</v>
       </c>
       <c r="G24">
-        <v>0.8704158013440004</v>
+        <v>227.2822809839676</v>
       </c>
       <c r="H24">
-        <v>0.6404946462720001</v>
+        <v>322.0857310233706</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>332.4695601981682</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>430.7030283512539</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>325.7978856848121</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>238.6755406908889</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1541,28 +1532,28 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D25">
-        <v>20.43532800000001</v>
+        <v>1.47806456832</v>
       </c>
       <c r="E25">
-        <v>17.51599542857143</v>
+        <v>1.330258111488</v>
       </c>
       <c r="F25">
-        <v>14.59666285714286</v>
+        <v>1.100336956416</v>
       </c>
       <c r="G25">
-        <v>11.80837588114286</v>
+        <v>0.8704158013440002</v>
       </c>
       <c r="H25">
-        <v>8.856281910857142</v>
+        <v>0.640494646272</v>
       </c>
       <c r="I25">
-        <v>5.904187940571427</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>3.050702537142859</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1579,34 +1570,34 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D26">
-        <v>16.73660743167999</v>
+        <v>20.43532800000001</v>
       </c>
       <c r="E26">
-        <v>35.30374645994057</v>
+        <v>17.51599542857143</v>
       </c>
       <c r="F26">
-        <v>65.70300018644119</v>
+        <v>15.25351268571429</v>
       </c>
       <c r="G26">
-        <v>88.88017116660359</v>
+        <v>11.80837588114286</v>
       </c>
       <c r="H26">
-        <v>108.4757733700143</v>
+        <v>8.856281910857144</v>
       </c>
       <c r="I26">
-        <v>131.013738309687</v>
+        <v>5.904187940571427</v>
       </c>
       <c r="J26">
-        <v>154.8455334078919</v>
+        <v>3.007561289142859</v>
       </c>
       <c r="K26">
-        <v>178.115328</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>196.2800640000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1617,34 +1608,34 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>241.9014778021906</v>
+        <v>16.73660743167999</v>
       </c>
       <c r="E27">
-        <v>226.136037333402</v>
+        <v>35.30374645994056</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>65.04615035786973</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>88.48238803369975</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>108.4757733700143</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>131.013738309687</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>151.3261793703228</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>178.115328</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>196.2800640000001</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1655,22 +1646,22 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D28">
-        <v>308.1785221978095</v>
+        <v>241.0384387642706</v>
       </c>
       <c r="E28">
-        <v>452.3282637316387</v>
+        <v>226.136037333402</v>
       </c>
       <c r="F28">
-        <v>516.8622710950194</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>525.3163949349766</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>130.4178350701759</v>
+        <v>0</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -1693,22 +1684,22 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>309.0415612357295</v>
       </c>
       <c r="E29">
-        <v>304.5556989349595</v>
+        <v>312.3453458760385</v>
       </c>
       <c r="F29">
-        <v>301.2753242262481</v>
+        <v>394.0685011887239</v>
       </c>
       <c r="G29">
-        <v>329.585758831241</v>
+        <v>409.1844016248118</v>
       </c>
       <c r="H29">
-        <v>329.585758831241</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1731,34 +1722,34 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>444.5386167905596</v>
       </c>
       <c r="F30">
-        <v>712.5524046787326</v>
+        <v>446.6207839420545</v>
       </c>
       <c r="G30">
-        <v>809.4402562638381</v>
+        <v>481.4535622753916</v>
       </c>
       <c r="H30">
-        <v>1048.064951548859</v>
+        <v>507.6342281264685</v>
       </c>
       <c r="I30">
-        <v>1259.479671102629</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1266.756380326356</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>1674.772574320179</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>2794.285016936494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1769,7 +1760,7 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -1778,25 +1769,25 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>647.5317336925042</v>
       </c>
       <c r="G31">
-        <v>724.0519072322422</v>
+        <v>858.6936811126535</v>
       </c>
       <c r="H31">
-        <v>1518.472144941349</v>
+        <v>1635.426132108864</v>
       </c>
       <c r="I31">
-        <v>1996.059830125815</v>
+        <v>1655.685526171962</v>
       </c>
       <c r="J31">
-        <v>2080.626331541902</v>
+        <v>948.9544668270701</v>
       </c>
       <c r="K31">
-        <v>1823.951358268027</v>
+        <v>837.2132337946891</v>
       </c>
       <c r="L31">
-        <v>907.3895904022701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1807,34 +1798,34 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>126.62</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>259.57</v>
+        <v>42.46898117671705</v>
       </c>
       <c r="G32">
-        <v>816.3933908255999</v>
+        <v>651.6216840338284</v>
       </c>
       <c r="H32">
-        <v>1385.486319888</v>
+        <v>874.4019660446859</v>
       </c>
       <c r="I32">
-        <v>1970.3535971472</v>
+        <v>1590.221557681103</v>
       </c>
       <c r="J32">
-        <v>2334.629212891201</v>
+        <v>2420.372264827613</v>
       </c>
       <c r="K32">
-        <v>2398.6272072576</v>
+        <v>2655.296139046862</v>
       </c>
       <c r="L32">
-        <v>2430.4305946944</v>
+        <v>3684.321131088464</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1845,34 +1836,34 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D33">
-        <v>10.1822356408176</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>5.669360729078399</v>
+        <v>126.62</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>259.57</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>811.6686105407998</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1389.186123408</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1974.258218696</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2330.543736705601</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2398.5191270784</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>2435.273937724801</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1883,34 +1874,34 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D34">
-        <v>36.32357756988254</v>
+        <v>10.1822356408176</v>
       </c>
       <c r="E34">
-        <v>72.54077918396928</v>
+        <v>5.669360729078399</v>
       </c>
       <c r="F34">
-        <v>300.7235565873525</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>705.1151283339988</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>1357.887572170604</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>1860.68033862977</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>2683.207251060388</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>2802.803037558951</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>2837.5171075586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1921,34 +1912,34 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>117.7241867892999</v>
+        <v>81.49476387245653</v>
       </c>
       <c r="E35">
-        <v>283.4698600869524</v>
+        <v>73.31521268141347</v>
       </c>
       <c r="F35">
-        <v>282.9564434126474</v>
+        <v>301.3932818826333</v>
       </c>
       <c r="G35">
-        <v>555.9294407349786</v>
+        <v>677.1149288120367</v>
       </c>
       <c r="H35">
-        <v>664.8400929269581</v>
+        <v>1113.505270938525</v>
       </c>
       <c r="I35">
-        <v>1052.700083208469</v>
+        <v>1758.948838102416</v>
       </c>
       <c r="J35">
-        <v>1125.613619219611</v>
+        <v>2767.055134326954</v>
       </c>
       <c r="K35">
-        <v>1703.610054451779</v>
+        <v>2940.627788267534</v>
       </c>
       <c r="L35">
-        <v>2156.458477091103</v>
+        <v>3328.587340876542</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1959,34 +1950,34 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D36">
-        <v>2.740000000000001</v>
+        <v>72.55300048672589</v>
       </c>
       <c r="E36">
-        <v>12.95917015113442</v>
+        <v>282.6954265895081</v>
       </c>
       <c r="F36">
-        <v>12.95301933635117</v>
+        <v>282.2867181173665</v>
       </c>
       <c r="G36">
-        <v>11.54244050362755</v>
+        <v>585.575587139241</v>
       </c>
       <c r="H36">
-        <v>11.71806812067673</v>
+        <v>895.5570693780762</v>
       </c>
       <c r="I36">
-        <v>9.228813112650444</v>
+        <v>1167.167535813246</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1024.206737734179</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>1560.057374611046</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>1665.675513264267</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1997,34 +1988,34 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>2.740000000000001</v>
       </c>
       <c r="E37">
-        <v>7.170829848865572</v>
+        <v>12.94245980019651</v>
       </c>
       <c r="F37">
-        <v>7.50698066364883</v>
+        <v>12.94245980019651</v>
       </c>
       <c r="G37">
-        <v>7.842909792314753</v>
+        <v>11.50332150267276</v>
       </c>
       <c r="H37">
-        <v>8.093028115514748</v>
+        <v>11.71034203374311</v>
       </c>
       <c r="I37">
-        <v>17.83608946304994</v>
+        <v>9.763164371547653</v>
       </c>
       <c r="J37">
-        <v>57.29717537684284</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>59.02792427520001</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>59.27804259839999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2035,34 +2026,34 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D38">
-        <v>1.70551315</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1.173563114</v>
+        <v>7.187540199803489</v>
       </c>
       <c r="F38">
-        <v>0.6029565912</v>
+        <v>7.51754019980349</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>7.687776846203489</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>7.937895169403484</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>17.32775190815703</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>56.94308801655116</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>59.02792427519999</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>59.27804259840001</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2073,34 +2064,34 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D39">
-        <v>0.01448684999999994</v>
+        <v>1.7034436</v>
       </c>
       <c r="E39">
-        <v>0.586436886</v>
+        <v>1.175632664</v>
       </c>
       <c r="F39">
-        <v>1.247043408800001</v>
+        <v>0.599007614</v>
       </c>
       <c r="G39">
-        <v>1.4044547088</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1.3956364152</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0.7618572000000003</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>2.7239224728</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>2.995920000000001</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>3.185136000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2111,34 +2102,34 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>0.01655639999999993</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>0.584367336</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1.250992386</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1.4298948</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1.4133384</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>0.7618572000000002</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>2.7479224728</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2.99592</v>
       </c>
       <c r="L40">
-        <v>35.65043183990453</v>
+        <v>3.185136</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2149,7 +2140,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2170,13 +2161,13 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>14.984898048</v>
       </c>
       <c r="K41">
-        <v>78.30817689600001</v>
+        <v>93.293074944</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>550.0907735040001</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2187,7 +2178,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2202,19 +2193,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.4730400000000001</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>3.1536</v>
       </c>
       <c r="J42">
-        <v>14.984898048</v>
+        <v>19.55232</v>
       </c>
       <c r="K42">
-        <v>14.984898048</v>
+        <v>121.72896</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>717.7593600000001</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2225,7 +2216,7 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -2237,22 +2228,22 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>5.994362880000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>4.580919360000001</v>
       </c>
       <c r="I43">
-        <v>3.1536</v>
+        <v>4.580919360000001</v>
       </c>
       <c r="J43">
-        <v>19.55232</v>
+        <v>328.9635899957394</v>
       </c>
       <c r="K43">
-        <v>121.72896</v>
+        <v>692.5611747733199</v>
       </c>
       <c r="L43">
-        <v>533.4609330126302</v>
+        <v>897.794537296802</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2263,7 +2254,7 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2278,19 +2269,19 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>23.858955</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>101.44571436</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>293.6305619325316</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>412.1599382748501</v>
       </c>
       <c r="L44">
-        <v>184.2984269873698</v>
+        <v>431.2400822415816</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2301,34 +2292,34 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D45">
-        <v>0</v>
+        <v>25.08</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>27.16999999999999</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>29.25999999999999</v>
       </c>
       <c r="G45">
-        <v>4.580919359999999</v>
+        <v>41.057412192</v>
       </c>
       <c r="H45">
-        <v>4.580919359999999</v>
+        <v>74.29004899200002</v>
       </c>
       <c r="I45">
-        <v>3.39453504</v>
+        <v>107.522685792</v>
       </c>
       <c r="J45">
-        <v>304.6169862240623</v>
+        <v>140.755322592</v>
       </c>
       <c r="K45">
-        <v>611.2289075672224</v>
+        <v>173.987959392</v>
       </c>
       <c r="L45">
-        <v>967.9587238395269</v>
+        <v>209.041800192</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2339,34 +2330,34 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>175.75</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>190.475</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>205.2</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>119.607280992</v>
       </c>
       <c r="H46">
-        <v>23.858955</v>
+        <v>212.4532259136</v>
       </c>
       <c r="I46">
-        <v>120.9226091900274</v>
+        <v>305.2991708352</v>
       </c>
       <c r="J46">
-        <v>299.0083350213849</v>
+        <v>398.1451157568</v>
       </c>
       <c r="K46">
-        <v>201.9504669151563</v>
+        <v>490.9910606784001</v>
       </c>
       <c r="L46">
-        <v>309.8352235365232</v>
+        <v>587.9074958784</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2377,16 +2368,16 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>116.85</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>126.825</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>136.8</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -2395,16 +2386,16 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>10.650069864</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>419.818837248</v>
+        <v>0</v>
       </c>
       <c r="K47">
-        <v>1054.467158883473</v>
+        <v>0</v>
       </c>
       <c r="L47">
-        <v>3576.447633347668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2415,34 +2406,34 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D48">
-        <v>25.08</v>
+        <v>37.525</v>
       </c>
       <c r="E48">
-        <v>27.17</v>
+        <v>46.8825</v>
       </c>
       <c r="F48">
-        <v>29.26</v>
+        <v>56.24000000000001</v>
       </c>
       <c r="G48">
-        <v>38.889312192</v>
+        <v>132.47737488</v>
       </c>
       <c r="H48">
-        <v>74.29004899200001</v>
+        <v>138.51967248</v>
       </c>
       <c r="I48">
-        <v>107.522685792</v>
+        <v>144.56197008</v>
       </c>
       <c r="J48">
-        <v>140.755322592</v>
+        <v>150.60426768</v>
       </c>
       <c r="K48">
-        <v>173.987959392</v>
+        <v>156.64656528</v>
       </c>
       <c r="L48">
-        <v>209.0418001920002</v>
+        <v>162.95376528</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2453,147 +2444,33 @@
         <v>59</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D49">
-        <v>175.75</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>190.475</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>205.2</v>
+        <v>0</v>
       </c>
       <c r="G49">
-        <v>119.607280992</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>212.4532259136</v>
+        <v>0</v>
       </c>
       <c r="I49">
-        <v>305.2991708352</v>
+        <v>0</v>
       </c>
       <c r="J49">
-        <v>398.1451157568</v>
+        <v>0</v>
       </c>
       <c r="K49">
-        <v>490.9910606784001</v>
+        <v>0</v>
       </c>
       <c r="L49">
-        <v>587.9074958784</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50">
-        <v>116.85</v>
-      </c>
-      <c r="E50">
-        <v>126.825</v>
-      </c>
-      <c r="F50">
-        <v>136.8</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51">
-        <v>37.525</v>
-      </c>
-      <c r="E51">
-        <v>46.8825</v>
-      </c>
-      <c r="F51">
-        <v>56.24</v>
-      </c>
-      <c r="G51">
-        <v>129.1610881166945</v>
-      </c>
-      <c r="H51">
-        <v>138.51967248</v>
-      </c>
-      <c r="I51">
-        <v>144.56197008</v>
-      </c>
-      <c r="J51">
-        <v>150.60426768</v>
-      </c>
-      <c r="K51">
-        <v>156.64656528</v>
-      </c>
-      <c r="L51">
-        <v>162.95376528</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12">
-      <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" t="s">
-        <v>65</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
         <v>30.211488</v>
       </c>
     </row>

--- a/TEMOA_Europe_Results/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/_3_Electricity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
   <si>
     <t>tech</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>ELC_WIN_ON_CEN_1_NEW</t>
-  </si>
-  <si>
-    <t>ELC_WIN_ON_CEN_2_NEW</t>
   </si>
   <si>
     <t>ELC_WIN_ON_CEN_3_NEW</t>
@@ -609,7 +606,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -658,22 +655,22 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D2">
-        <v>1708.27071243929</v>
+        <v>1544.449994986423</v>
       </c>
       <c r="E2">
-        <v>1309.588594768356</v>
+        <v>1236.812858066864</v>
       </c>
       <c r="F2">
-        <v>764.8394543999999</v>
+        <v>917.8073452799999</v>
       </c>
       <c r="G2">
-        <v>509.8929696</v>
+        <v>611.8715635200001</v>
       </c>
       <c r="H2">
-        <v>254.9464848</v>
+        <v>305.9357817600001</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -696,19 +693,19 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3">
-        <v>229.7345534064001</v>
+        <v>229.7345534064</v>
       </c>
       <c r="E3">
-        <v>183.7876427251201</v>
+        <v>183.78764272512</v>
       </c>
       <c r="F3">
         <v>137.84073204384</v>
       </c>
       <c r="G3">
-        <v>91.89382136256002</v>
+        <v>91.89382136255999</v>
       </c>
       <c r="H3">
         <v>45.94691068128002</v>
@@ -734,16 +731,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4">
-        <v>1204.94473415431</v>
+        <v>1368.765451607176</v>
       </c>
       <c r="E4">
-        <v>1607.083762506525</v>
+        <v>1679.859499208017</v>
       </c>
       <c r="F4">
-        <v>793.3898135561601</v>
+        <v>640.42192267616</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -772,7 +769,7 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5">
         <v>1839.14120376</v>
@@ -810,10 +807,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6">
-        <v>158.5530069883199</v>
+        <v>158.55300698832</v>
       </c>
       <c r="E6">
         <v>126.842405590656</v>
@@ -848,25 +845,25 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7">
         <v>1086.19578925168</v>
       </c>
       <c r="E7">
-        <v>510.8946314013442</v>
+        <v>510.8946314013438</v>
       </c>
       <c r="F7">
         <v>1420.753473551007</v>
       </c>
       <c r="G7">
-        <v>266.822082064881</v>
+        <v>219.7928668115968</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>52.76117525328775</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -886,25 +883,25 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D8">
-        <v>237.9217694400001</v>
+        <v>252.9376316406662</v>
       </c>
       <c r="E8">
-        <v>152.137548</v>
+        <v>182.5650576</v>
       </c>
       <c r="F8">
-        <v>121.7100384</v>
+        <v>146.05204608</v>
       </c>
       <c r="G8">
-        <v>91.28252880000001</v>
+        <v>109.53903456</v>
       </c>
       <c r="H8">
-        <v>60.85501920000001</v>
+        <v>73.02602304000003</v>
       </c>
       <c r="I8">
-        <v>30.42750960000001</v>
+        <v>36.51301152000003</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -924,7 +921,7 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D9">
         <v>17.73561871008</v>
@@ -962,19 +959,19 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>56.51395703193594</v>
+        <v>26.08644743193599</v>
       </c>
       <c r="F10">
-        <v>28.74866254374396</v>
+        <v>4.406654863743963</v>
       </c>
       <c r="G10">
-        <v>3.328259304713454</v>
+        <v>0</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -1000,10 +997,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11">
-        <v>35.58261184992001</v>
+        <v>20.56674964925376</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1038,28 +1035,28 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D12">
-        <v>1719.110615040001</v>
+        <v>1719.11061504</v>
       </c>
       <c r="E12">
         <v>1473.52338432</v>
       </c>
       <c r="F12">
-        <v>1296.1548288</v>
+        <v>1295.86927927295</v>
       </c>
       <c r="G12">
-        <v>1012.599990369867</v>
+        <v>1007.88999487488</v>
       </c>
       <c r="H12">
-        <v>753.5187381990951</v>
+        <v>745.0297955942401</v>
       </c>
       <c r="I12">
-        <v>507.1443997966991</v>
+        <v>496.68653039616</v>
       </c>
       <c r="J12">
-        <v>252.6025593240049</v>
+        <v>259.2309657600002</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1076,34 +1073,34 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13">
-        <v>36.5368319282295</v>
+        <v>31.88357674645583</v>
       </c>
       <c r="E13">
-        <v>32.31632582315472</v>
+        <v>27.66307064138088</v>
       </c>
       <c r="F13">
-        <v>33.26457141393272</v>
+        <v>28.60814025157522</v>
       </c>
       <c r="G13">
         <v>34.83633026766665</v>
       </c>
       <c r="H13">
-        <v>39.93160178766666</v>
+        <v>34.83633026766665</v>
       </c>
       <c r="I13">
-        <v>32.84555794391664</v>
+        <v>27.75028642391663</v>
       </c>
       <c r="J13">
         <v>5.521229702799998</v>
       </c>
       <c r="K13">
-        <v>5.521229702799998</v>
+        <v>5.521229702799996</v>
       </c>
       <c r="L13">
-        <v>5.686984057599997</v>
+        <v>5.686984057599995</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1114,34 +1111,34 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14">
-        <v>278.0398422244688</v>
+        <v>278.0398422244689</v>
       </c>
       <c r="E14">
-        <v>562.437579049544</v>
+        <v>562.4375790495445</v>
       </c>
       <c r="F14">
-        <v>846.4978889787653</v>
+        <v>846.7866144864</v>
       </c>
       <c r="G14">
-        <v>1094.10159731616</v>
+        <v>1254.29559551712</v>
       </c>
       <c r="H14">
-        <v>1369.36334814912</v>
+        <v>1569.860075571839</v>
       </c>
       <c r="I14">
-        <v>1646.79166948608</v>
+        <v>1887.90834675456</v>
       </c>
       <c r="J14">
-        <v>1926.28339130304</v>
+        <v>2208.32213329728</v>
       </c>
       <c r="K14">
-        <v>2089.290309249599</v>
+        <v>2301.380783895905</v>
       </c>
       <c r="L14">
-        <v>2157.42995208</v>
+        <v>2437.683261997804</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1152,7 +1149,7 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1176,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>232.1433676944</v>
+        <v>255.7089759884338</v>
       </c>
       <c r="L15">
-        <v>239.71443912</v>
+        <v>270.8536957775339</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1190,34 +1187,34 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D16">
-        <v>98.29271080730156</v>
+        <v>102.945965989075</v>
       </c>
       <c r="E16">
-        <v>98.29271080730156</v>
+        <v>102.945965989075</v>
       </c>
       <c r="F16">
-        <v>98.29271080730156</v>
+        <v>102.945965989075</v>
       </c>
       <c r="G16">
-        <v>239.9232688609631</v>
+        <v>239.3581521323334</v>
       </c>
       <c r="H16">
-        <v>239.3581521323334</v>
+        <v>247.9543138523334</v>
       </c>
       <c r="I16">
-        <v>193.2098022596737</v>
+        <v>160.1122672960833</v>
       </c>
       <c r="J16">
-        <v>191.2803322090111</v>
+        <v>185.3435785668923</v>
       </c>
       <c r="K16">
-        <v>93.46817590277293</v>
+        <v>154.9183770599696</v>
       </c>
       <c r="L16">
-        <v>177.2720851723565</v>
+        <v>143.2782258684556</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1228,16 +1225,16 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D17">
-        <v>3087.00928</v>
+        <v>3192.399963999999</v>
       </c>
       <c r="E17">
         <v>2860.23928</v>
       </c>
       <c r="F17">
-        <v>2226.290955999999</v>
+        <v>2226.290956</v>
       </c>
       <c r="G17">
         <v>2190.616704</v>
@@ -1252,7 +1249,7 @@
         <v>281.5534079999999</v>
       </c>
       <c r="K17">
-        <v>140.7767040000003</v>
+        <v>140.776704</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1266,19 +1263,19 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D18">
+        <v>105.4800360000008</v>
+      </c>
+      <c r="E18">
         <v>210.8707200000006</v>
       </c>
-      <c r="E18">
-        <v>210.8707199999685</v>
-      </c>
       <c r="F18">
-        <v>400.6990440000088</v>
+        <v>400.6990440000006</v>
       </c>
       <c r="G18">
-        <v>400.6990440000006</v>
+        <v>400.6990440000005</v>
       </c>
       <c r="H18">
         <v>400.6990440000005</v>
@@ -1290,10 +1287,10 @@
         <v>400.6990440000005</v>
       </c>
       <c r="K18">
+        <v>400.6990440000006</v>
+      </c>
+      <c r="L18">
         <v>400.6990440000005</v>
-      </c>
-      <c r="L18">
-        <v>400.6990440000006</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1304,7 +1301,7 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1316,13 +1313,13 @@
         <v>0</v>
       </c>
       <c r="G19">
-        <v>238.3464600000072</v>
+        <v>238.34646</v>
       </c>
       <c r="H19">
-        <v>476.69292</v>
+        <v>476.6929199999999</v>
       </c>
       <c r="I19">
-        <v>715.0393799999996</v>
+        <v>715.0393799999999</v>
       </c>
       <c r="J19">
         <v>1817.732412</v>
@@ -1342,7 +1339,7 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>30.2682259944</v>
@@ -1357,7 +1354,7 @@
         <v>12.10729039776</v>
       </c>
       <c r="H20">
-        <v>6.05364519888</v>
+        <v>6.053645198880001</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1380,10 +1377,10 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21">
-        <v>197.825328</v>
+        <v>208.2414897201423</v>
       </c>
       <c r="E21">
         <v>158.2602624</v>
@@ -1418,34 +1415,34 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D22">
-        <v>155.3692899336686</v>
+        <v>85.33458111188716</v>
       </c>
       <c r="E22">
-        <v>209.3777025884799</v>
+        <v>97.52523555644247</v>
       </c>
       <c r="F22">
-        <v>385.5311573025563</v>
+        <v>252.6518218079053</v>
       </c>
       <c r="G22">
-        <v>88.23451391599778</v>
+        <v>28.80230768610122</v>
       </c>
       <c r="H22">
-        <v>74.54707359308163</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>31.40290443270433</v>
+        <v>23.42411452397091</v>
       </c>
       <c r="J22">
-        <v>166.0131927078669</v>
+        <v>162.9585243416819</v>
       </c>
       <c r="K22">
-        <v>383.1412087399097</v>
+        <v>281.5975605681692</v>
       </c>
       <c r="L22">
-        <v>276.6187224386414</v>
+        <v>281.5975605681692</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1456,22 +1453,22 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D23">
-        <v>91.58733414085233</v>
+        <v>174.0411985526975</v>
       </c>
       <c r="E23">
-        <v>104.671239018117</v>
+        <v>196.4625463169121</v>
       </c>
       <c r="F23">
-        <v>104.6712390181169</v>
+        <v>199.0532891337824</v>
       </c>
       <c r="G23">
-        <v>27.73787833980099</v>
+        <v>44.84104919966107</v>
       </c>
       <c r="H23">
-        <v>27.73787833980099</v>
+        <v>23.02521011606334</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1494,34 +1491,34 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D24">
-        <v>49.44982193107901</v>
+        <v>26.61450462087313</v>
       </c>
       <c r="E24">
-        <v>244.086215197883</v>
+        <v>264.1473749311254</v>
       </c>
       <c r="F24">
-        <v>213.1014712826866</v>
+        <v>251.5987566616722</v>
       </c>
       <c r="G24">
-        <v>227.2822809839676</v>
+        <v>264.3852147551432</v>
       </c>
       <c r="H24">
-        <v>322.0857310233706</v>
+        <v>322.212389246705</v>
       </c>
       <c r="I24">
-        <v>332.4695601981682</v>
+        <v>433.9587337484157</v>
       </c>
       <c r="J24">
-        <v>430.7030283512539</v>
+        <v>429.682521257782</v>
       </c>
       <c r="K24">
-        <v>325.7978856848121</v>
+        <v>360.9208064275518</v>
       </c>
       <c r="L24">
-        <v>238.6755406908889</v>
+        <v>241.67498913804</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1532,7 +1529,7 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D25">
         <v>1.47806456832</v>
@@ -1544,7 +1541,7 @@
         <v>1.100336956416</v>
       </c>
       <c r="G25">
-        <v>0.8704158013440002</v>
+        <v>0.8704158013440003</v>
       </c>
       <c r="H25">
         <v>0.640494646272</v>
@@ -1570,7 +1567,7 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D26">
         <v>20.43532800000001</v>
@@ -1579,19 +1576,19 @@
         <v>17.51599542857143</v>
       </c>
       <c r="F26">
-        <v>15.25351268571429</v>
+        <v>14.76046985142857</v>
       </c>
       <c r="G26">
         <v>11.80837588114286</v>
       </c>
       <c r="H26">
-        <v>8.856281910857144</v>
+        <v>8.856281910857142</v>
       </c>
       <c r="I26">
         <v>5.904187940571427</v>
       </c>
       <c r="J26">
-        <v>3.007561289142859</v>
+        <v>2.982909147428574</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1608,34 +1605,34 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D27">
         <v>16.73660743167999</v>
       </c>
       <c r="E27">
-        <v>35.30374645994056</v>
+        <v>35.30374645994058</v>
       </c>
       <c r="F27">
-        <v>65.04615035786973</v>
+        <v>65.53919319215545</v>
       </c>
       <c r="G27">
-        <v>88.48238803369975</v>
+        <v>87.9015978451696</v>
       </c>
       <c r="H27">
-        <v>108.4757733700143</v>
+        <v>110.3678774887568</v>
       </c>
       <c r="I27">
-        <v>131.013738309687</v>
+        <v>132.1758935691977</v>
       </c>
       <c r="J27">
-        <v>151.3261793703228</v>
+        <v>154.5239326311759</v>
       </c>
       <c r="K27">
-        <v>178.115328</v>
+        <v>174.3730686183787</v>
       </c>
       <c r="L27">
-        <v>196.2800640000001</v>
+        <v>196.280064000006</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1646,13 +1643,13 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>241.0384387642706</v>
+        <v>259.5982206427057</v>
       </c>
       <c r="E28">
-        <v>226.136037333402</v>
+        <v>184.313018475252</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -1684,19 +1681,19 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D29">
-        <v>309.0415612357295</v>
+        <v>290.4817793572943</v>
       </c>
       <c r="E29">
-        <v>312.3453458760385</v>
+        <v>319.8906908989683</v>
       </c>
       <c r="F29">
-        <v>394.0685011887239</v>
+        <v>317.6347614442451</v>
       </c>
       <c r="G29">
-        <v>409.1844016248118</v>
+        <v>397.2667844710033</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1722,31 +1719,31 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30">
         <v>0</v>
       </c>
       <c r="E30">
-        <v>444.5386167905596</v>
+        <v>478.8162906257797</v>
       </c>
       <c r="F30">
-        <v>446.6207839420545</v>
+        <v>566.4708160164721</v>
       </c>
       <c r="G30">
-        <v>481.4535622753916</v>
+        <v>853.4200436323636</v>
       </c>
       <c r="H30">
-        <v>507.6342281264685</v>
+        <v>1613.506587527261</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1102.511493346715</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1037.850663917996</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>819.36580976475</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1769,25 +1766,25 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>647.5317336925042</v>
+        <v>646.584422539283</v>
       </c>
       <c r="G31">
-        <v>858.6936811126535</v>
+        <v>1216.802581649144</v>
       </c>
       <c r="H31">
-        <v>1635.426132108864</v>
+        <v>1444.852033817373</v>
       </c>
       <c r="I31">
-        <v>1655.685526171962</v>
+        <v>2151.029064831841</v>
       </c>
       <c r="J31">
-        <v>948.9544668270701</v>
+        <v>2373.691497257163</v>
       </c>
       <c r="K31">
-        <v>837.2132337946891</v>
+        <v>2711.323623569079</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>3542.75503808367</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1798,34 +1795,34 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D32">
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>126.62</v>
       </c>
       <c r="F32">
-        <v>42.46898117671705</v>
+        <v>259.57</v>
       </c>
       <c r="G32">
-        <v>651.6216840338284</v>
+        <v>825.1520543999999</v>
       </c>
       <c r="H32">
-        <v>874.4019660446859</v>
+        <v>1390.652263331941</v>
       </c>
       <c r="I32">
-        <v>1590.221557681103</v>
+        <v>1995.982179335768</v>
       </c>
       <c r="J32">
-        <v>2420.372264827613</v>
+        <v>2397.2497435152</v>
       </c>
       <c r="K32">
-        <v>2655.296139046862</v>
+        <v>2443.730157504143</v>
       </c>
       <c r="L32">
-        <v>3684.321131088464</v>
+        <v>2455.612759612801</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1836,34 +1833,34 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>10.1822356408176</v>
       </c>
       <c r="E33">
-        <v>126.62</v>
+        <v>4.830263455478399</v>
       </c>
       <c r="F33">
-        <v>259.57</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>811.6686105407998</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1389.186123408</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1974.258218696</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>2330.543736705601</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>2398.5191270784</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>2435.273937724801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1874,34 +1871,34 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D34">
-        <v>10.1822356408176</v>
+        <v>118.8800343367535</v>
       </c>
       <c r="E34">
-        <v>5.669360729078399</v>
+        <v>98.26451976779474</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>325.0947832232731</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>821.9793503517567</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1236.71757676497</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1815.296832575265</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>2457.669456987689</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2993.466432861579</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>3270.860921222984</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1915,31 +1912,31 @@
         <v>60</v>
       </c>
       <c r="D35">
-        <v>81.49476387245653</v>
+        <v>35.16773002242891</v>
       </c>
       <c r="E35">
-        <v>73.31521268141347</v>
+        <v>258.5852167767268</v>
       </c>
       <c r="F35">
-        <v>301.3932818826333</v>
+        <v>258.5852167767268</v>
       </c>
       <c r="G35">
-        <v>677.1149288120367</v>
+        <v>366.0066796249834</v>
       </c>
       <c r="H35">
-        <v>1113.505270938525</v>
+        <v>657.2976644967163</v>
       </c>
       <c r="I35">
-        <v>1758.948838102416</v>
+        <v>926.6023781723674</v>
       </c>
       <c r="J35">
-        <v>2767.055134326954</v>
+        <v>1178.019423156062</v>
       </c>
       <c r="K35">
-        <v>2940.627788267534</v>
+        <v>1528.725265043225</v>
       </c>
       <c r="L35">
-        <v>3328.587340876542</v>
+        <v>1887.185263307219</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1950,34 +1947,34 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D36">
-        <v>72.55300048672589</v>
+        <v>2.74</v>
       </c>
       <c r="E36">
-        <v>282.6954265895081</v>
+        <v>14.37701218288228</v>
       </c>
       <c r="F36">
-        <v>282.2867181173665</v>
+        <v>14.37701218288228</v>
       </c>
       <c r="G36">
-        <v>585.575587139241</v>
+        <v>11.62204132933243</v>
       </c>
       <c r="H36">
-        <v>895.5570693780762</v>
+        <v>12.15297536450363</v>
       </c>
       <c r="I36">
-        <v>1167.167535813246</v>
+        <v>10.15039688440293</v>
       </c>
       <c r="J36">
-        <v>1024.206737734179</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>1560.057374611046</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>1665.675513264267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1988,34 +1985,34 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D37">
-        <v>2.740000000000001</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>12.94245980019651</v>
+        <v>5.752987817117718</v>
       </c>
       <c r="F37">
-        <v>12.94245980019651</v>
+        <v>6.082987817117719</v>
       </c>
       <c r="G37">
-        <v>11.50332150267276</v>
+        <v>5.92924812397497</v>
       </c>
       <c r="H37">
-        <v>11.71034203374311</v>
+        <v>6.161960544443477</v>
       </c>
       <c r="I37">
-        <v>9.763164371547653</v>
+        <v>16.1014098532399</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>56.82934348650203</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>57.40330690548964</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>59.27804259839998</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2026,34 +2023,34 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1.70551315</v>
       </c>
       <c r="E38">
-        <v>7.187540199803489</v>
+        <v>1.0919624</v>
       </c>
       <c r="F38">
-        <v>7.51754019980349</v>
+        <v>0.5774624816</v>
       </c>
       <c r="G38">
-        <v>7.687776846203489</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>7.937895169403484</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>17.32775190815703</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>56.94308801655116</v>
+        <v>0</v>
       </c>
       <c r="K38">
-        <v>59.02792427519999</v>
+        <v>0</v>
       </c>
       <c r="L38">
-        <v>59.27804259840001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2064,34 +2061,34 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>1.7034436</v>
+        <v>0.01448684999999993</v>
       </c>
       <c r="E39">
-        <v>1.175632664</v>
+        <v>0.6680376000000001</v>
       </c>
       <c r="F39">
-        <v>0.599007614</v>
+        <v>1.2725375184</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1.3897142568</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1.363098924</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>0.7542386280000003</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>2.77863696</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>2.96785296</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>3.185136000000001</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2102,34 +2099,34 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D40">
-        <v>0.01655639999999993</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>0.584367336</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.250992386</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>1.4298948</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1.4133384</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>0.7618572000000002</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>2.7479224728</v>
+        <v>14.984898048</v>
       </c>
       <c r="K40">
-        <v>2.99592</v>
+        <v>93.293074944</v>
       </c>
       <c r="L40">
-        <v>3.185136</v>
+        <v>550.090773504</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2140,7 +2137,7 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2155,19 +2152,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>0.47304</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>3.1536</v>
       </c>
       <c r="J41">
-        <v>14.984898048</v>
+        <v>19.55232</v>
       </c>
       <c r="K41">
-        <v>93.293074944</v>
+        <v>121.72896</v>
       </c>
       <c r="L41">
-        <v>550.0907735040001</v>
+        <v>717.75936</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2178,7 +2175,7 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -2193,19 +2190,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.4730400000000001</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>3.1536</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>19.55232</v>
+        <v>261.010784852463</v>
       </c>
       <c r="K42">
-        <v>121.72896</v>
+        <v>629.5322280366906</v>
       </c>
       <c r="L42">
-        <v>717.7593600000001</v>
+        <v>889.1821227632042</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2228,22 +2225,22 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <v>5.994362880000001</v>
+        <v>4.580919359999999</v>
       </c>
       <c r="H43">
-        <v>4.580919360000001</v>
+        <v>28.43987436</v>
       </c>
       <c r="I43">
-        <v>4.580919360000001</v>
+        <v>141.5396962950341</v>
       </c>
       <c r="J43">
-        <v>328.9635899957394</v>
+        <v>324.3224129395552</v>
       </c>
       <c r="K43">
-        <v>692.5611747733199</v>
+        <v>421.7864845620119</v>
       </c>
       <c r="L43">
-        <v>897.794537296802</v>
+        <v>465.3216492601326</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2257,31 +2254,31 @@
         <v>61</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>25.08000000000001</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>27.17</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>29.26</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>41.057412192</v>
       </c>
       <c r="H44">
-        <v>23.858955</v>
+        <v>74.290048992</v>
       </c>
       <c r="I44">
-        <v>101.44571436</v>
+        <v>107.522685792</v>
       </c>
       <c r="J44">
-        <v>293.6305619325316</v>
+        <v>140.755322592</v>
       </c>
       <c r="K44">
-        <v>412.1599382748501</v>
+        <v>173.987959392</v>
       </c>
       <c r="L44">
-        <v>431.2400822415816</v>
+        <v>207.220596192</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2292,34 +2289,34 @@
         <v>55</v>
       </c>
       <c r="C45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D45">
-        <v>25.08</v>
+        <v>175.75</v>
       </c>
       <c r="E45">
-        <v>27.16999999999999</v>
+        <v>190.475</v>
       </c>
       <c r="F45">
-        <v>29.25999999999999</v>
+        <v>205.2</v>
       </c>
       <c r="G45">
-        <v>41.057412192</v>
+        <v>119.607280992</v>
       </c>
       <c r="H45">
-        <v>74.29004899200002</v>
+        <v>212.4532259136</v>
       </c>
       <c r="I45">
-        <v>107.522685792</v>
+        <v>305.2991708352</v>
       </c>
       <c r="J45">
-        <v>140.755322592</v>
+        <v>398.1451157568</v>
       </c>
       <c r="K45">
-        <v>173.987959392</v>
+        <v>490.9910606784001</v>
       </c>
       <c r="L45">
-        <v>209.041800192</v>
+        <v>583.8370055999999</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2330,34 +2327,34 @@
         <v>56</v>
       </c>
       <c r="C46" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D46">
-        <v>175.75</v>
+        <v>116.85</v>
       </c>
       <c r="E46">
-        <v>190.475</v>
+        <v>126.825</v>
       </c>
       <c r="F46">
-        <v>205.2</v>
+        <v>136.8</v>
       </c>
       <c r="G46">
-        <v>119.607280992</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>212.4532259136</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>305.2991708352</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>398.1451157568</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>490.9910606784001</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>587.9074958784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2368,34 +2365,34 @@
         <v>57</v>
       </c>
       <c r="C47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D47">
-        <v>116.85</v>
+        <v>37.525</v>
       </c>
       <c r="E47">
-        <v>126.825</v>
+        <v>46.8825</v>
       </c>
       <c r="F47">
-        <v>136.8</v>
+        <v>56.24</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>132.47737488</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>138.51967248</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>144.56197008</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>150.60426768</v>
       </c>
       <c r="K47">
-        <v>0</v>
+        <v>156.64656528</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>162.68886288</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2406,71 +2403,33 @@
         <v>58</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D48">
-        <v>37.525</v>
+        <v>0</v>
       </c>
       <c r="E48">
-        <v>46.8825</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>56.24000000000001</v>
+        <v>0</v>
       </c>
       <c r="G48">
-        <v>132.47737488</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>138.51967248</v>
+        <v>0</v>
       </c>
       <c r="I48">
-        <v>144.56197008</v>
+        <v>0</v>
       </c>
       <c r="J48">
-        <v>150.60426768</v>
+        <v>0</v>
       </c>
       <c r="K48">
-        <v>156.64656528</v>
+        <v>0</v>
       </c>
       <c r="L48">
-        <v>162.95376528</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
         <v>30.211488</v>
       </c>
     </row>

--- a/TEMOA_Europe_Results/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/_3_Electricity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
   <si>
     <t>tech</t>
   </si>
@@ -80,19 +80,16 @@
     <t>ELC_OIL_MIX_CCY_NEW</t>
   </si>
   <si>
-    <t>ELC_OIL_GPL_NEW</t>
-  </si>
-  <si>
-    <t>ELC_HYD_CONV_EXS</t>
+    <t>ELC_HYD_GEN_EXS</t>
   </si>
   <si>
     <t>ELC_HYD_PUM_EXS</t>
   </si>
   <si>
-    <t>ELC_HYD_DAM_HIG_NEW</t>
-  </si>
-  <si>
-    <t>ELC_HYD_RUN_NEW</t>
+    <t>ELC_HYD_GEN_DAM_NEW</t>
+  </si>
+  <si>
+    <t>ELC_HYD_GEN_RUN_NEW</t>
   </si>
   <si>
     <t>ELC_HYD_PUM_NEW</t>
@@ -113,15 +110,18 @@
     <t>ELC_BIO_EXS</t>
   </si>
   <si>
-    <t>ELC_BIO_GSF_CEN_NEW</t>
-  </si>
-  <si>
     <t>ELC_BIO_GSF_DEC_NEW</t>
   </si>
   <si>
+    <t>ELC_BIO_GAS_NEW</t>
+  </si>
+  <si>
     <t>ELC_BIO_CRP_GSF_NEW</t>
   </si>
   <si>
+    <t>ELC_BIO_MUN_INC_NEW</t>
+  </si>
+  <si>
     <t>ELC_CHP_GEO_EXS</t>
   </si>
   <si>
@@ -131,16 +131,7 @@
     <t>ELC_GEO_FLS_NEW</t>
   </si>
   <si>
-    <t>ELC_WIN_ON_EXS</t>
-  </si>
-  <si>
-    <t>ELC_WIN_ON_CEN_1_NEW</t>
-  </si>
-  <si>
-    <t>ELC_WIN_ON_CEN_3_NEW</t>
-  </si>
-  <si>
-    <t>ELC_WIN_ON_DEC_3_NEW</t>
+    <t>ELC_WIN_ON_CEN_NEW</t>
   </si>
   <si>
     <t>ELC_WIN_OFF_NEW</t>
@@ -152,7 +143,7 @@
     <t>ELC_SOL_PV_CEN_NEW</t>
   </si>
   <si>
-    <t>ELC_SOL_PV_DEC_2_NEW</t>
+    <t>ELC_SOL_PV_DEC_NEW</t>
   </si>
   <si>
     <t>ELC_SOL_CSP_2_NEW</t>
@@ -161,13 +152,10 @@
     <t>ELC_SOL_CSP_4_NEW</t>
   </si>
   <si>
-    <t>ELC_MAR_EXS</t>
-  </si>
-  <si>
     <t>ELC_MAR_TDL_NEW</t>
   </si>
   <si>
-    <t>ELC_NGA_SOFC_CCS_NEW</t>
+    <t>ELC_NGA_FG_CCS_NEW</t>
   </si>
   <si>
     <t>ELC_BIO_CRP_COM_CCS_NEW</t>
@@ -606,7 +594,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L48"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -655,22 +643,22 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D2">
-        <v>1544.449994986423</v>
+        <v>1560.197316964098</v>
       </c>
       <c r="E2">
-        <v>1236.812858066864</v>
+        <v>1481.459253164098</v>
       </c>
       <c r="F2">
-        <v>917.8073452799999</v>
+        <v>874.1022336000002</v>
       </c>
       <c r="G2">
-        <v>611.8715635200001</v>
+        <v>582.7348224</v>
       </c>
       <c r="H2">
-        <v>305.9357817600001</v>
+        <v>291.3674111999999</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -693,22 +681,22 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>229.7345534064</v>
+        <v>224.431127745512</v>
       </c>
       <c r="E3">
-        <v>183.78764272512</v>
+        <v>280.4517068450192</v>
       </c>
       <c r="F3">
-        <v>137.84073204384</v>
+        <v>209.5128623868</v>
       </c>
       <c r="G3">
-        <v>91.89382136255999</v>
+        <v>86.94301392000001</v>
       </c>
       <c r="H3">
-        <v>45.94691068128002</v>
+        <v>43.47150696</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -731,16 +719,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>1368.765451607176</v>
+        <v>1358.32155529039</v>
       </c>
       <c r="E4">
-        <v>1679.859499208017</v>
+        <v>1338.549039990882</v>
       </c>
       <c r="F4">
-        <v>640.42192267616</v>
+        <v>612.4549040131999</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -769,22 +757,22 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D5">
-        <v>1839.14120376</v>
+        <v>1941.31571508</v>
       </c>
       <c r="E5">
-        <v>1471.312963008</v>
+        <v>1029.243954678292</v>
       </c>
       <c r="F5">
-        <v>1103.484722256</v>
+        <v>694.8876541599182</v>
       </c>
       <c r="G5">
-        <v>735.6564815039999</v>
+        <v>408.69804528</v>
       </c>
       <c r="H5">
-        <v>367.8282407520001</v>
+        <v>204.3490226399999</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -807,22 +795,22 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D6">
-        <v>158.55300698832</v>
+        <v>597.2161249999996</v>
       </c>
       <c r="E6">
-        <v>126.842405590656</v>
+        <v>421.1130414600441</v>
       </c>
       <c r="F6">
-        <v>95.13180419299198</v>
+        <v>362.0475726</v>
       </c>
       <c r="G6">
-        <v>63.42120279532799</v>
+        <v>153.815142</v>
       </c>
       <c r="H6">
-        <v>31.71060139766399</v>
+        <v>76.90757099999999</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -845,19 +833,19 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>1086.19578925168</v>
+        <v>545.3581599199998</v>
       </c>
       <c r="E7">
-        <v>510.8946314013438</v>
+        <v>658.6930038616639</v>
       </c>
       <c r="F7">
-        <v>1420.753473551007</v>
+        <v>1562.434773240082</v>
       </c>
       <c r="G7">
-        <v>219.7928668115968</v>
+        <v>47.60091439543129</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -883,25 +871,25 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D8">
-        <v>252.9376316406662</v>
+        <v>182.5650576</v>
       </c>
       <c r="E8">
-        <v>182.5650576</v>
+        <v>152.137548</v>
       </c>
       <c r="F8">
-        <v>146.05204608</v>
+        <v>121.7100384</v>
       </c>
       <c r="G8">
-        <v>109.53903456</v>
+        <v>91.28252880000001</v>
       </c>
       <c r="H8">
-        <v>73.02602304000003</v>
+        <v>60.85501920000001</v>
       </c>
       <c r="I8">
-        <v>36.51301152000003</v>
+        <v>30.42750960000001</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -921,22 +909,22 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D9">
-        <v>17.73561871008</v>
+        <v>53.99728512499998</v>
       </c>
       <c r="E9">
-        <v>14.188494968064</v>
+        <v>41.49229519999999</v>
       </c>
       <c r="F9">
-        <v>10.081299056256</v>
+        <v>31.11922139999999</v>
       </c>
       <c r="G9">
-        <v>6.720866037504001</v>
+        <v>20.7461476</v>
       </c>
       <c r="H9">
-        <v>3.360433018752001</v>
+        <v>10.3730738</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -959,16 +947,16 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>54.67765727500007</v>
       </c>
       <c r="E10">
-        <v>26.08644743193599</v>
+        <v>29.21015679999999</v>
       </c>
       <c r="F10">
-        <v>4.406654863743963</v>
+        <v>7.710740199999996</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -997,28 +985,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>20.56674964925376</v>
+        <v>1898.61067097736</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1586.705636936057</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1388.090268469543</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1026.311335263363</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>772.6894681775987</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>510.4097207954505</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>266.2999373638214</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1035,34 +1023,34 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D12">
-        <v>1719.11061504</v>
+        <v>26.76020017579999</v>
       </c>
       <c r="E12">
-        <v>1473.52338432</v>
+        <v>26.76020017579999</v>
       </c>
       <c r="F12">
-        <v>1295.86927927295</v>
+        <v>43.2</v>
       </c>
       <c r="G12">
-        <v>1007.88999487488</v>
+        <v>26.76020017579999</v>
       </c>
       <c r="H12">
-        <v>745.0297955942401</v>
+        <v>37.19564503199999</v>
       </c>
       <c r="I12">
-        <v>496.68653039616</v>
+        <v>29.7565160256</v>
       </c>
       <c r="J12">
-        <v>259.2309657600002</v>
+        <v>22.3173870192</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>15.2472624278</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>15.2472624278</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1073,34 +1061,34 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D13">
-        <v>31.88357674645583</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>27.66307064138088</v>
+        <v>365.0115793501029</v>
       </c>
       <c r="F13">
-        <v>28.60814025157522</v>
+        <v>630.7068961878174</v>
       </c>
       <c r="G13">
-        <v>34.83633026766665</v>
+        <v>699.5395968260023</v>
       </c>
       <c r="H13">
-        <v>34.83633026766665</v>
+        <v>753.9834625202059</v>
       </c>
       <c r="I13">
-        <v>27.75028642391663</v>
+        <v>753.9834625202059</v>
       </c>
       <c r="J13">
-        <v>5.521229702799998</v>
+        <v>753.9834625202059</v>
       </c>
       <c r="K13">
-        <v>5.521229702799996</v>
+        <v>676.5691400522688</v>
       </c>
       <c r="L13">
-        <v>5.686984057599995</v>
+        <v>910.3692173262921</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1111,34 +1099,34 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>278.0398422244689</v>
+        <v>190.1693290226398</v>
       </c>
       <c r="E14">
-        <v>562.4375790495445</v>
+        <v>171.6527837138398</v>
       </c>
       <c r="F14">
-        <v>846.7866144864</v>
+        <v>212.2128353426398</v>
       </c>
       <c r="G14">
-        <v>1254.29559551712</v>
+        <v>523.0181644541483</v>
       </c>
       <c r="H14">
-        <v>1569.860075571839</v>
+        <v>849.984630802457</v>
       </c>
       <c r="I14">
-        <v>1887.90834675456</v>
+        <v>1179.167951806766</v>
       </c>
       <c r="J14">
-        <v>2208.32213329728</v>
+        <v>1510.706680883074</v>
       </c>
       <c r="K14">
-        <v>2301.380783895905</v>
+        <v>1844.739371447382</v>
       </c>
       <c r="L14">
-        <v>2437.683261997804</v>
+        <v>1651.043081413543</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1149,34 +1137,34 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>16.43979982420001</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>16.43979982420001</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>16.43979982420001</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.004354968000008</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.4434839744</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>20.8826129808</v>
       </c>
       <c r="K15">
-        <v>255.7089759884338</v>
+        <v>27.9527375722</v>
       </c>
       <c r="L15">
-        <v>270.8536957775339</v>
+        <v>27.95273757220001</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1187,34 +1175,34 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>102.945965989075</v>
+        <v>3212.26157332</v>
       </c>
       <c r="E16">
-        <v>102.945965989075</v>
+        <v>2509.125631999996</v>
       </c>
       <c r="F16">
-        <v>102.945965989075</v>
+        <v>2065.005632000011</v>
       </c>
       <c r="G16">
-        <v>239.3581521323334</v>
+        <v>2149.089258239984</v>
       </c>
       <c r="H16">
-        <v>247.9543138523334</v>
+        <v>1790.9077152</v>
       </c>
       <c r="I16">
-        <v>160.1122672960833</v>
+        <v>1432.72617216</v>
       </c>
       <c r="J16">
-        <v>185.3435785668923</v>
+        <v>226.9528528646042</v>
       </c>
       <c r="K16">
-        <v>154.9183770599696</v>
+        <v>123.2624848646045</v>
       </c>
       <c r="L16">
-        <v>143.2782258684556</v>
+        <v>24.11330086460459</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1225,34 +1213,34 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D17">
-        <v>3192.399963999999</v>
+        <v>85.61842667998658</v>
       </c>
       <c r="E17">
-        <v>2860.23928</v>
+        <v>561.984367999989</v>
       </c>
       <c r="F17">
-        <v>2226.290956</v>
+        <v>561.9843679999889</v>
       </c>
       <c r="G17">
-        <v>2190.616704</v>
+        <v>691.74620712</v>
       </c>
       <c r="H17">
-        <v>1825.51392</v>
+        <v>691.7462071200002</v>
       </c>
       <c r="I17">
-        <v>1460.411136</v>
+        <v>691.7462071200039</v>
       </c>
       <c r="J17">
-        <v>281.5534079999999</v>
+        <v>691.74620712</v>
       </c>
       <c r="K17">
-        <v>140.776704</v>
+        <v>691.7462071199999</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>691.7462071200001</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1263,34 +1251,34 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D18">
-        <v>105.4800360000008</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>210.8707200000006</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>400.6990440000006</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>400.6990440000005</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>400.6990440000005</v>
+        <v>255.3857374800002</v>
       </c>
       <c r="I18">
-        <v>400.6990440000005</v>
+        <v>516.1325949600002</v>
       </c>
       <c r="J18">
-        <v>400.6990440000005</v>
+        <v>1682.538778711358</v>
       </c>
       <c r="K18">
-        <v>400.6990440000006</v>
+        <v>1682.538778711358</v>
       </c>
       <c r="L18">
-        <v>400.6990440000005</v>
+        <v>1682.538778711358</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1301,34 +1289,34 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>39.24740812</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>41.50232388593348</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>23.548444872</v>
       </c>
       <c r="G19">
-        <v>238.34646</v>
+        <v>15.698963248</v>
       </c>
       <c r="H19">
-        <v>476.6929199999999</v>
+        <v>7.849481623999996</v>
       </c>
       <c r="I19">
-        <v>715.0393799999999</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>1817.732412</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>1817.732412</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>1817.732412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1339,22 +1327,22 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D20">
-        <v>30.2682259944</v>
+        <v>109.90296</v>
       </c>
       <c r="E20">
-        <v>24.21458079552</v>
+        <v>87.92236800000002</v>
       </c>
       <c r="F20">
-        <v>18.16093559664</v>
+        <v>65.941776</v>
       </c>
       <c r="G20">
-        <v>12.10729039776</v>
+        <v>43.96118400000002</v>
       </c>
       <c r="H20">
-        <v>6.053645198880001</v>
+        <v>21.980592</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1377,22 +1365,22 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D21">
-        <v>208.2414897201423</v>
+        <v>6.389442422749947</v>
       </c>
       <c r="E21">
-        <v>158.2602624</v>
+        <v>3.344416719565116</v>
       </c>
       <c r="F21">
-        <v>118.6951968</v>
+        <v>0.4464039680352999</v>
       </c>
       <c r="G21">
-        <v>79.13013120000001</v>
+        <v>1.93508827660427</v>
       </c>
       <c r="H21">
-        <v>39.5650656</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1415,34 +1403,34 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D22">
-        <v>85.33458111188716</v>
+        <v>49.86518945725015</v>
       </c>
       <c r="E22">
-        <v>97.52523555644247</v>
+        <v>26.10086488162351</v>
       </c>
       <c r="F22">
-        <v>252.6518218079053</v>
+        <v>23.20841368927577</v>
       </c>
       <c r="G22">
-        <v>28.80230768610122</v>
+        <v>15.10202880705291</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>23.42411452397091</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>162.9585243416819</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>281.5975605681692</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>281.5975605681692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1453,31 +1441,31 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D23">
-        <v>174.0411985526975</v>
+        <v>181.755</v>
       </c>
       <c r="E23">
-        <v>196.4625463169121</v>
+        <v>412.5200265128777</v>
       </c>
       <c r="F23">
-        <v>199.0532891337824</v>
+        <v>537.5649614706891</v>
       </c>
       <c r="G23">
-        <v>44.84104919966107</v>
+        <v>731.0530548752067</v>
       </c>
       <c r="H23">
-        <v>23.02521011606334</v>
+        <v>603.9061667557997</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>400.2369187018796</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>425.1993373719407</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>158.6924888221381</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1491,34 +1479,34 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>26.61450462087313</v>
+        <v>137.54</v>
       </c>
       <c r="E24">
-        <v>264.1473749311254</v>
+        <v>163.92</v>
       </c>
       <c r="F24">
-        <v>251.5987566616722</v>
+        <v>186.24</v>
       </c>
       <c r="G24">
-        <v>264.3852147551432</v>
+        <v>172.5464156626506</v>
       </c>
       <c r="H24">
-        <v>322.212389246705</v>
+        <v>93.90732202677606</v>
       </c>
       <c r="I24">
-        <v>433.9587337484157</v>
+        <v>231.857</v>
       </c>
       <c r="J24">
-        <v>429.682521257782</v>
+        <v>249.014</v>
       </c>
       <c r="K24">
-        <v>360.9208064275518</v>
+        <v>249.014</v>
       </c>
       <c r="L24">
-        <v>241.67498913804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1529,22 +1517,22 @@
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25">
-        <v>1.47806456832</v>
+        <v>3.197683</v>
       </c>
       <c r="E25">
-        <v>1.330258111488</v>
+        <v>2.5581464</v>
       </c>
       <c r="F25">
-        <v>1.100336956416</v>
+        <v>1.9186098</v>
       </c>
       <c r="G25">
-        <v>0.8704158013440003</v>
+        <v>1.2790732</v>
       </c>
       <c r="H25">
-        <v>0.640494646272</v>
+        <v>0.6395366</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1567,28 +1555,28 @@
         <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D26">
-        <v>20.43532800000001</v>
+        <v>21.712536</v>
       </c>
       <c r="E26">
-        <v>17.51599542857143</v>
+        <v>18.61074514285714</v>
       </c>
       <c r="F26">
-        <v>14.76046985142857</v>
+        <v>15.50895428571429</v>
       </c>
       <c r="G26">
-        <v>11.80837588114286</v>
+        <v>12.40716342857143</v>
       </c>
       <c r="H26">
-        <v>8.856281910857142</v>
+        <v>9.30537257142857</v>
       </c>
       <c r="I26">
-        <v>5.904187940571427</v>
+        <v>6.203581714285715</v>
       </c>
       <c r="J26">
-        <v>2.982909147428574</v>
+        <v>3.101790857142856</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1605,34 +1593,34 @@
         <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D27">
-        <v>16.73660743167999</v>
+        <v>13.739781</v>
       </c>
       <c r="E27">
-        <v>35.30374645994058</v>
+        <v>32.98110845714286</v>
       </c>
       <c r="F27">
-        <v>65.53919319215545</v>
+        <v>63.97243591428571</v>
       </c>
       <c r="G27">
-        <v>87.9015978451696</v>
+        <v>84.87657809002089</v>
       </c>
       <c r="H27">
-        <v>110.3678774887568</v>
+        <v>44.08618368542144</v>
       </c>
       <c r="I27">
-        <v>132.1758935691977</v>
+        <v>84.36968442514288</v>
       </c>
       <c r="J27">
-        <v>154.5239326311759</v>
+        <v>97.61141205257144</v>
       </c>
       <c r="K27">
-        <v>174.3730686183787</v>
+        <v>55.50107364000001</v>
       </c>
       <c r="L27">
-        <v>196.280064000006</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1643,34 +1631,34 @@
         <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D28">
-        <v>259.5982206427057</v>
+        <v>550.08</v>
       </c>
       <c r="E28">
-        <v>184.313018475252</v>
+        <v>983.02</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>1530.69</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>2423.7130858904</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2953.996843553848</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>3154.76753935248</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>3111.657283041119</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>3357.447655334815</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>3569.349709328375</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1681,34 +1669,34 @@
         <v>39</v>
       </c>
       <c r="C29" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D29">
-        <v>290.4817793572943</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>319.8906908989683</v>
+        <v>126.62</v>
       </c>
       <c r="F29">
-        <v>317.6347614442451</v>
+        <v>259.57</v>
       </c>
       <c r="G29">
-        <v>397.2667844710033</v>
+        <v>1016.6853023352</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2375.519873752799</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>4583.257863521763</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>7695.9509163588</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>10400.14914516338</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>12205.66894810675</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1719,31 +1707,31 @@
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>10.1822356408176</v>
       </c>
       <c r="E30">
-        <v>478.8162906257797</v>
+        <v>4.830263455478399</v>
       </c>
       <c r="F30">
-        <v>566.4708160164721</v>
+        <v>2.4151317277392</v>
       </c>
       <c r="G30">
-        <v>853.4200436323636</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>1613.506587527261</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1102.511493346715</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>1037.850663917996</v>
+        <v>0</v>
       </c>
       <c r="K30">
-        <v>819.36580976475</v>
+        <v>0</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -1757,34 +1745,34 @@
         <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>98.53800000000001</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>217.008</v>
       </c>
       <c r="F31">
-        <v>646.584422539283</v>
+        <v>350.208</v>
       </c>
       <c r="G31">
-        <v>1216.802581649144</v>
+        <v>733.9151837865031</v>
       </c>
       <c r="H31">
-        <v>1444.852033817373</v>
+        <v>1173.004069160805</v>
       </c>
       <c r="I31">
-        <v>2151.029064831841</v>
+        <v>1680.222810908034</v>
       </c>
       <c r="J31">
-        <v>2373.691497257163</v>
+        <v>2196.557783453975</v>
       </c>
       <c r="K31">
-        <v>2711.323623569079</v>
+        <v>2562.165134385512</v>
       </c>
       <c r="L31">
-        <v>3542.75503808367</v>
+        <v>2556.925649854871</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1795,34 +1783,34 @@
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>55.50976435918241</v>
       </c>
       <c r="E32">
-        <v>126.62</v>
+        <v>139.8417365445216</v>
       </c>
       <c r="F32">
-        <v>259.57</v>
+        <v>231.0568682722607</v>
       </c>
       <c r="G32">
-        <v>825.1520543999999</v>
+        <v>733.915183786503</v>
       </c>
       <c r="H32">
-        <v>1390.652263331941</v>
+        <v>1173.004069160805</v>
       </c>
       <c r="I32">
-        <v>1995.982179335768</v>
+        <v>1680.222810908035</v>
       </c>
       <c r="J32">
-        <v>2397.2497435152</v>
+        <v>2196.557783453976</v>
       </c>
       <c r="K32">
-        <v>2443.730157504143</v>
+        <v>2562.165134385514</v>
       </c>
       <c r="L32">
-        <v>2455.612759612801</v>
+        <v>2556.925649854871</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1833,25 +1821,25 @@
         <v>43</v>
       </c>
       <c r="C33" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D33">
-        <v>10.1822356408176</v>
+        <v>2.74</v>
       </c>
       <c r="E33">
-        <v>4.830263455478399</v>
+        <v>14.37701218288228</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>14.37701218288228</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>11.62204132933243</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>11.62204132933243</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>2.931149814831898</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -1871,34 +1859,34 @@
         <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D34">
-        <v>118.8800343367535</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>98.26451976779474</v>
+        <v>5.752987817117713</v>
       </c>
       <c r="F34">
-        <v>325.0947832232731</v>
+        <v>6.082987817117712</v>
       </c>
       <c r="G34">
-        <v>821.9793503517567</v>
+        <v>5.948572597067472</v>
       </c>
       <c r="H34">
-        <v>1236.71757676497</v>
+        <v>6.198690920267556</v>
       </c>
       <c r="I34">
-        <v>1815.296832575265</v>
+        <v>43.04202783397992</v>
       </c>
       <c r="J34">
-        <v>2457.669456987689</v>
+        <v>56.41300370960824</v>
       </c>
       <c r="K34">
-        <v>2993.466432861579</v>
+        <v>58.23276041447775</v>
       </c>
       <c r="L34">
-        <v>3270.860921222984</v>
+        <v>58.28880210288208</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1909,34 +1897,34 @@
         <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>35.16773002242891</v>
+        <v>1.72</v>
       </c>
       <c r="E35">
-        <v>258.5852167767268</v>
+        <v>1.76</v>
       </c>
       <c r="F35">
-        <v>258.5852167767268</v>
+        <v>1.85</v>
       </c>
       <c r="G35">
-        <v>366.0066796249834</v>
+        <v>7.829001216000001</v>
       </c>
       <c r="H35">
-        <v>657.2976644967163</v>
+        <v>9.279152640000001</v>
       </c>
       <c r="I35">
-        <v>926.6023781723674</v>
+        <v>10.09908864</v>
       </c>
       <c r="J35">
-        <v>1178.019423156062</v>
+        <v>11.226816</v>
       </c>
       <c r="K35">
-        <v>1528.725265043225</v>
+        <v>11.98368</v>
       </c>
       <c r="L35">
-        <v>1887.185263307219</v>
+        <v>12.59926272</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1947,28 +1935,28 @@
         <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>14.37701218288228</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>14.37701218288228</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>11.62204132933243</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>12.15297536450363</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>10.15039688440293</v>
+        <v>1.39767552</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>8.665588224000002</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -1985,34 +1973,34 @@
         <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37">
-        <v>5.752987817117718</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>6.082987817117719</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>5.92924812397497</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>6.161960544443477</v>
+        <v>0.6149520000000001</v>
       </c>
       <c r="I37">
-        <v>16.1014098532399</v>
+        <v>4.09968</v>
       </c>
       <c r="J37">
-        <v>56.82934348650203</v>
+        <v>25.418016</v>
       </c>
       <c r="K37">
-        <v>57.40330690548964</v>
+        <v>158.247648</v>
       </c>
       <c r="L37">
-        <v>59.27804259839998</v>
+        <v>933.0871679999999</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2023,34 +2011,34 @@
         <v>48</v>
       </c>
       <c r="C38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D38">
-        <v>1.70551315</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>1.0919624</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.5774624816</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4.580919359999996</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4.580919359999983</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>4.989625919999995</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>154.6363375738906</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>331.3234419481735</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>737.6916102131518</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2061,34 +2049,34 @@
         <v>49</v>
       </c>
       <c r="C39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D39">
-        <v>0.01448684999999993</v>
+        <v>0</v>
       </c>
       <c r="E39">
-        <v>0.6680376000000001</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>1.2725375184</v>
+        <v>0</v>
       </c>
       <c r="G39">
-        <v>1.3897142568</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>1.363098924</v>
+        <v>0</v>
       </c>
       <c r="I39">
-        <v>0.7542386280000003</v>
+        <v>117.380934</v>
       </c>
       <c r="J39">
-        <v>2.77863696</v>
+        <v>462.5394234661095</v>
       </c>
       <c r="K39">
-        <v>2.96785296</v>
+        <v>1020.618416935252</v>
       </c>
       <c r="L39">
-        <v>3.185136000000001</v>
+        <v>1438.133657341484</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2099,34 +2087,34 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>25.08</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>27.17</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>29.26</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>18.385834896</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>74.29004899200001</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>62.17908969600001</v>
       </c>
       <c r="J40">
-        <v>14.984898048</v>
+        <v>140.755322592</v>
       </c>
       <c r="K40">
-        <v>93.293074944</v>
+        <v>135.667020528</v>
       </c>
       <c r="L40">
-        <v>550.090773504</v>
+        <v>68.13620856</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2137,34 +2125,34 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>190.475</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>205.2</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>53.56108929600001</v>
       </c>
       <c r="H41">
-        <v>0.47304</v>
+        <v>212.4532259136</v>
       </c>
       <c r="I41">
-        <v>3.1536</v>
+        <v>223.3438113888</v>
       </c>
       <c r="J41">
-        <v>19.55232</v>
+        <v>398.1451157568</v>
       </c>
       <c r="K41">
-        <v>121.72896</v>
+        <v>382.8500233056</v>
       </c>
       <c r="L41">
-        <v>717.75936</v>
+        <v>191.971458</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2175,16 +2163,16 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>116.85</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>126.825</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>136.8</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -2196,13 +2184,13 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>261.010784852463</v>
+        <v>0</v>
       </c>
       <c r="K42">
-        <v>629.5322280366906</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>889.1821227632042</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2213,34 +2201,34 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>37.525</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>46.8825</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>56.23999999999999</v>
       </c>
       <c r="G43">
-        <v>4.580919359999999</v>
+        <v>59.32441944</v>
       </c>
       <c r="H43">
-        <v>28.43987436</v>
+        <v>138.5196724800001</v>
       </c>
       <c r="I43">
-        <v>141.5396962950341</v>
+        <v>107.2456156381646</v>
       </c>
       <c r="J43">
-        <v>324.3224129395552</v>
+        <v>150.60426768</v>
       </c>
       <c r="K43">
-        <v>421.7864845620119</v>
+        <v>122.1450775199996</v>
       </c>
       <c r="L43">
-        <v>465.3216492601326</v>
+        <v>53.49372840000004</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2251,186 +2239,34 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D44">
-        <v>25.08000000000001</v>
+        <v>0</v>
       </c>
       <c r="E44">
-        <v>27.17</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>29.26</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>41.057412192</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>74.290048992</v>
+        <v>0</v>
       </c>
       <c r="I44">
-        <v>107.522685792</v>
+        <v>0</v>
       </c>
       <c r="J44">
-        <v>140.755322592</v>
+        <v>0</v>
       </c>
       <c r="K44">
-        <v>173.987959392</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>207.220596192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" t="s">
-        <v>61</v>
-      </c>
-      <c r="D45">
-        <v>175.75</v>
-      </c>
-      <c r="E45">
-        <v>190.475</v>
-      </c>
-      <c r="F45">
-        <v>205.2</v>
-      </c>
-      <c r="G45">
-        <v>119.607280992</v>
-      </c>
-      <c r="H45">
-        <v>212.4532259136</v>
-      </c>
-      <c r="I45">
-        <v>305.2991708352</v>
-      </c>
-      <c r="J45">
-        <v>398.1451157568</v>
-      </c>
-      <c r="K45">
-        <v>490.9910606784001</v>
-      </c>
-      <c r="L45">
-        <v>583.8370055999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D46">
-        <v>116.85</v>
-      </c>
-      <c r="E46">
-        <v>126.825</v>
-      </c>
-      <c r="F46">
-        <v>136.8</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" t="s">
-        <v>61</v>
-      </c>
-      <c r="D47">
-        <v>37.525</v>
-      </c>
-      <c r="E47">
-        <v>46.8825</v>
-      </c>
-      <c r="F47">
-        <v>56.24</v>
-      </c>
-      <c r="G47">
-        <v>132.47737488</v>
-      </c>
-      <c r="H47">
-        <v>138.51967248</v>
-      </c>
-      <c r="I47">
-        <v>144.56197008</v>
-      </c>
-      <c r="J47">
-        <v>150.60426768</v>
-      </c>
-      <c r="K47">
-        <v>156.64656528</v>
-      </c>
-      <c r="L47">
-        <v>162.68886288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" t="s">
-        <v>61</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>30.211488</v>
+        <v>9.93384</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/_3_Electricity.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="52">
   <si>
     <t>tech</t>
   </si>
@@ -113,9 +113,6 @@
     <t>ELC_BIO_GSF_DEC_NEW</t>
   </si>
   <si>
-    <t>ELC_BIO_GAS_NEW</t>
-  </si>
-  <si>
     <t>ELC_BIO_CRP_GSF_NEW</t>
   </si>
   <si>
@@ -143,52 +140,37 @@
     <t>ELC_SOL_PV_CEN_NEW</t>
   </si>
   <si>
-    <t>ELC_SOL_PV_DEC_NEW</t>
-  </si>
-  <si>
     <t>ELC_SOL_CSP_2_NEW</t>
   </si>
   <si>
-    <t>ELC_SOL_CSP_4_NEW</t>
+    <t>ELC_SOL_CSP_3_NEW</t>
+  </si>
+  <si>
+    <t>ELC_MAR_EXS</t>
   </si>
   <si>
     <t>ELC_MAR_TDL_NEW</t>
   </si>
   <si>
-    <t>ELC_NGA_FG_CCS_NEW</t>
-  </si>
-  <si>
     <t>ELC_BIO_CRP_COM_CCS_NEW</t>
   </si>
   <si>
     <t>ELC_STG_CEN_BTT_NEW</t>
   </si>
   <si>
-    <t>ELC_STG_DIS_BTT_NEW</t>
-  </si>
-  <si>
-    <t>IMP_ELC_AFR</t>
-  </si>
-  <si>
-    <t>IMP_ELC_OEE</t>
-  </si>
-  <si>
-    <t>IMP_ELC_RUS</t>
-  </si>
-  <si>
-    <t>IMP_ELC_MEA</t>
-  </si>
-  <si>
-    <t>IMP_ELC_CAC</t>
+    <t>ELC_HH2_PEMFC_NEW</t>
   </si>
   <si>
     <t>ELC_CEN</t>
   </si>
   <si>
+    <t>ELC_HYD_STG_CEN</t>
+  </si>
+  <si>
     <t>ELC_DIS</t>
   </si>
   <si>
-    <t>IMP_ELC_CEN</t>
+    <t>ELC_VRES_STG_CEN</t>
   </si>
 </sst>
 </file>
@@ -643,16 +625,16 @@
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D2">
-        <v>1560.197316964098</v>
+        <v>1624.947192762625</v>
       </c>
       <c r="E2">
-        <v>1481.459253164098</v>
+        <v>1520.464244380225</v>
       </c>
       <c r="F2">
-        <v>874.1022336000002</v>
+        <v>874.1022336</v>
       </c>
       <c r="G2">
         <v>582.7348224</v>
@@ -681,16 +663,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D3">
-        <v>224.431127745512</v>
+        <v>217.3575348000001</v>
       </c>
       <c r="E3">
-        <v>280.4517068450192</v>
+        <v>279.3504831824</v>
       </c>
       <c r="F3">
-        <v>209.5128623868</v>
+        <v>194.6508925153204</v>
       </c>
       <c r="G3">
         <v>86.94301392000001</v>
@@ -719,16 +701,16 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D4">
-        <v>1358.32155529039</v>
+        <v>1300.645272437375</v>
       </c>
       <c r="E4">
-        <v>1338.549039990882</v>
+        <v>1300.645272437374</v>
       </c>
       <c r="F4">
-        <v>612.4549040131999</v>
+        <v>627.3168738846795</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -757,19 +739,19 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D5">
         <v>1941.31571508</v>
       </c>
       <c r="E5">
-        <v>1029.243954678292</v>
+        <v>1157.003056980515</v>
       </c>
       <c r="F5">
-        <v>694.8876541599182</v>
+        <v>1164.789429048</v>
       </c>
       <c r="G5">
-        <v>408.69804528</v>
+        <v>408.6980452799999</v>
       </c>
       <c r="H5">
         <v>204.3490226399999</v>
@@ -795,13 +777,13 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D6">
-        <v>597.2161249999996</v>
+        <v>583.912548309077</v>
       </c>
       <c r="E6">
-        <v>421.1130414600441</v>
+        <v>394.2141250484282</v>
       </c>
       <c r="F6">
         <v>362.0475726</v>
@@ -833,19 +815,19 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>545.3581599199998</v>
+        <v>558.6617366109227</v>
       </c>
       <c r="E7">
-        <v>658.6930038616639</v>
+        <v>557.8328179710572</v>
       </c>
       <c r="F7">
-        <v>1562.434773240082</v>
+        <v>1092.532998352</v>
       </c>
       <c r="G7">
-        <v>47.60091439543129</v>
+        <v>0</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -871,7 +853,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>182.5650576</v>
@@ -886,7 +868,7 @@
         <v>91.28252880000001</v>
       </c>
       <c r="H8">
-        <v>60.85501920000001</v>
+        <v>60.8550192</v>
       </c>
       <c r="I8">
         <v>30.42750960000001</v>
@@ -909,16 +891,16 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D9">
         <v>53.99728512499998</v>
       </c>
       <c r="E9">
-        <v>41.49229519999999</v>
+        <v>41.4922952</v>
       </c>
       <c r="F9">
-        <v>31.11922139999999</v>
+        <v>31.1192214</v>
       </c>
       <c r="G9">
         <v>20.7461476</v>
@@ -947,7 +929,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>54.67765727500007</v>
@@ -956,7 +938,7 @@
         <v>29.21015679999999</v>
       </c>
       <c r="F10">
-        <v>7.710740199999996</v>
+        <v>7.710740199999989</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -985,28 +967,28 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D11">
-        <v>1898.61067097736</v>
+        <v>696.4095484746833</v>
       </c>
       <c r="E11">
-        <v>1586.705636936057</v>
+        <v>803.5990583550148</v>
       </c>
       <c r="F11">
-        <v>1388.090268469543</v>
+        <v>746.4152130109184</v>
       </c>
       <c r="G11">
-        <v>1026.311335263363</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>772.6894681775987</v>
+        <v>10.41339905857144</v>
       </c>
       <c r="I11">
-        <v>510.4097207954505</v>
+        <v>101.0228004687564</v>
       </c>
       <c r="J11">
-        <v>266.2999373638214</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -1020,37 +1002,37 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>26.76020017579999</v>
+        <v>1202.201122502677</v>
       </c>
       <c r="E12">
-        <v>26.76020017579999</v>
+        <v>783.1065785810426</v>
       </c>
       <c r="F12">
-        <v>43.2</v>
+        <v>641.6750554586247</v>
       </c>
       <c r="G12">
-        <v>26.76020017579999</v>
+        <v>1057.577611561101</v>
       </c>
       <c r="H12">
-        <v>37.19564503199999</v>
+        <v>822.4407620231544</v>
       </c>
       <c r="I12">
-        <v>29.7565160256</v>
+        <v>454.2133069190608</v>
       </c>
       <c r="J12">
-        <v>22.3173870192</v>
+        <v>277.6180536939086</v>
       </c>
       <c r="K12">
-        <v>15.2472624278</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>15.2472624278</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1058,37 +1040,37 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>26.7602001758</v>
       </c>
       <c r="E13">
-        <v>365.0115793501029</v>
+        <v>26.7602001758</v>
       </c>
       <c r="F13">
-        <v>630.7068961878174</v>
+        <v>43.2</v>
       </c>
       <c r="G13">
-        <v>699.5395968260023</v>
+        <v>26.7602001758</v>
       </c>
       <c r="H13">
-        <v>753.9834625202059</v>
+        <v>37.195645032</v>
       </c>
       <c r="I13">
-        <v>753.9834625202059</v>
+        <v>31.77797040326666</v>
       </c>
       <c r="J13">
-        <v>753.9834625202059</v>
+        <v>29.55958777638667</v>
       </c>
       <c r="K13">
-        <v>676.5691400522688</v>
+        <v>29.55958777638665</v>
       </c>
       <c r="L13">
-        <v>910.3692173262921</v>
+        <v>15.24726242780001</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1096,37 +1078,37 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D14">
-        <v>190.1693290226398</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>171.6527837138398</v>
+        <v>168.5435981152114</v>
       </c>
       <c r="F14">
-        <v>212.2128353426398</v>
+        <v>245.6253329268874</v>
       </c>
       <c r="G14">
-        <v>523.0181644541483</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>849.984630802457</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1179.167951806766</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>1510.706680883074</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>1844.739371447382</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>1651.043081413543</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1134,37 +1116,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>16.43979982420001</v>
+        <v>0</v>
       </c>
       <c r="E15">
-        <v>16.43979982420001</v>
+        <v>196.4679812348915</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>385.0815632609297</v>
       </c>
       <c r="G15">
-        <v>16.43979982420001</v>
+        <v>1022.481057856432</v>
       </c>
       <c r="H15">
-        <v>6.004354968000008</v>
+        <v>1338.720166728411</v>
       </c>
       <c r="I15">
-        <v>13.4434839744</v>
+        <v>1049.327734629124</v>
       </c>
       <c r="J15">
-        <v>20.8826129808</v>
+        <v>1030.465774429567</v>
       </c>
       <c r="K15">
-        <v>27.9527375722</v>
+        <v>1147.049225709035</v>
       </c>
       <c r="L15">
-        <v>27.95273757220001</v>
+        <v>1839.780223902854</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1172,37 +1154,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D16">
-        <v>3212.26157332</v>
+        <v>65.02834364399993</v>
       </c>
       <c r="E16">
-        <v>2509.125631999996</v>
+        <v>79.04801366351992</v>
       </c>
       <c r="F16">
-        <v>2065.005632000011</v>
+        <v>119.6080652923199</v>
       </c>
       <c r="G16">
-        <v>2149.089258239984</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>1790.9077152</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1432.72617216</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>226.9528528646042</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>123.2624848646045</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>24.11330086460459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1210,37 +1192,37 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D17">
-        <v>85.61842667998658</v>
+        <v>125.1409853786399</v>
       </c>
       <c r="E17">
-        <v>561.984367999989</v>
+        <v>92.60477005031991</v>
       </c>
       <c r="F17">
-        <v>561.9843679999889</v>
+        <v>92.60477005031991</v>
       </c>
       <c r="G17">
-        <v>691.74620712</v>
+        <v>193.6962900338398</v>
       </c>
       <c r="H17">
-        <v>691.7462071200002</v>
+        <v>193.6962900338398</v>
       </c>
       <c r="I17">
-        <v>691.7462071200039</v>
+        <v>151.1523228362399</v>
       </c>
       <c r="J17">
-        <v>691.74620712</v>
+        <v>205.5675908946398</v>
       </c>
       <c r="K17">
-        <v>691.7462071199999</v>
+        <v>212.2128353426398</v>
       </c>
       <c r="L17">
-        <v>691.7462071200001</v>
+        <v>204.4200248780948</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1248,37 +1230,37 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>16.4397998242</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>16.4397998242</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>16.4397998242</v>
       </c>
       <c r="H18">
-        <v>255.3857374800002</v>
+        <v>6.004354968000001</v>
       </c>
       <c r="I18">
-        <v>516.1325949600002</v>
+        <v>11.42202959673334</v>
       </c>
       <c r="J18">
-        <v>1682.538778711358</v>
+        <v>13.64041222361334</v>
       </c>
       <c r="K18">
-        <v>1682.538778711358</v>
+        <v>13.64041222361334</v>
       </c>
       <c r="L18">
-        <v>1682.538778711358</v>
+        <v>27.9527375722</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1286,37 +1268,37 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D19">
-        <v>39.24740812</v>
+        <v>3212.26157332</v>
       </c>
       <c r="E19">
-        <v>41.50232388593348</v>
+        <v>2509.125632000001</v>
       </c>
       <c r="F19">
-        <v>23.548444872</v>
+        <v>2101.599200000001</v>
       </c>
       <c r="G19">
-        <v>15.698963248</v>
+        <v>2149.08925824</v>
       </c>
       <c r="H19">
-        <v>7.849481623999996</v>
+        <v>1790.9077152</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1432.72617216</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1074.54462912</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>716.3630860800001</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>358.18154304</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1324,37 +1306,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D20">
-        <v>109.90296</v>
+        <v>85.61842668000013</v>
       </c>
       <c r="E20">
-        <v>87.92236800000002</v>
+        <v>561.9843679999994</v>
       </c>
       <c r="F20">
-        <v>65.941776</v>
+        <v>525.3907999999997</v>
       </c>
       <c r="G20">
-        <v>43.96118400000002</v>
+        <v>691.74620712</v>
       </c>
       <c r="H20">
-        <v>21.980592</v>
+        <v>691.7462071200001</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>691.7462071199999</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>691.7462071199989</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>691.7462071199988</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>691.7462071199994</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1362,37 +1344,37 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D21">
-        <v>6.389442422749947</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>3.344416719565116</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.4464039680352999</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>1.93508827660427</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>255.3857374799998</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>516.1325949600002</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>781.9725164399996</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1052.36938992</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>1052.36938992</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1400,25 +1382,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>49.86518945725015</v>
+        <v>39.24740812</v>
       </c>
       <c r="E22">
-        <v>26.10086488162351</v>
+        <v>39.76240933309933</v>
       </c>
       <c r="F22">
-        <v>23.20841368927577</v>
+        <v>23.54844487199999</v>
       </c>
       <c r="G22">
-        <v>15.10202880705291</v>
+        <v>15.698963248</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.849481623999997</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1438,34 +1420,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D23">
-        <v>181.755</v>
+        <v>109.90296</v>
       </c>
       <c r="E23">
-        <v>412.5200265128777</v>
+        <v>87.92236800000001</v>
       </c>
       <c r="F23">
-        <v>537.5649614706891</v>
+        <v>65.94177599999999</v>
       </c>
       <c r="G23">
-        <v>731.0530548752067</v>
+        <v>43.96118400000001</v>
       </c>
       <c r="H23">
-        <v>603.9061667557997</v>
+        <v>21.980592</v>
       </c>
       <c r="I23">
-        <v>400.2369187018796</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>425.1993373719407</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>158.6924888221381</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1476,34 +1458,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D24">
-        <v>137.54</v>
+        <v>56.25463188000005</v>
       </c>
       <c r="E24">
-        <v>163.92</v>
+        <v>29.4452816011886</v>
       </c>
       <c r="F24">
-        <v>186.24</v>
+        <v>17.96345982091783</v>
       </c>
       <c r="G24">
-        <v>172.5464156626506</v>
+        <v>17.03711708365716</v>
       </c>
       <c r="H24">
-        <v>93.90732202677606</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>231.857</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>249.014</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>249.014</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1514,34 +1496,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D25">
-        <v>3.197683</v>
+        <v>181.755</v>
       </c>
       <c r="E25">
-        <v>2.5581464</v>
+        <v>414.259941065712</v>
       </c>
       <c r="F25">
-        <v>1.9186098</v>
+        <v>543.2563193070821</v>
       </c>
       <c r="G25">
-        <v>1.2790732</v>
+        <v>733.2420504884</v>
       </c>
       <c r="H25">
-        <v>0.6395366</v>
+        <v>363.9069877840839</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>209.9286019043024</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>139.9655703366516</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>68.22682264430145</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1552,31 +1534,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>21.712536</v>
+        <v>137.54</v>
       </c>
       <c r="E26">
-        <v>18.61074514285714</v>
+        <v>163.92</v>
       </c>
       <c r="F26">
-        <v>15.50895428571429</v>
+        <v>186.2400000000001</v>
       </c>
       <c r="G26">
-        <v>12.40716342857143</v>
+        <v>53.87755465757211</v>
       </c>
       <c r="H26">
-        <v>9.30537257142857</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>6.203581714285715</v>
+        <v>30.70004057846561</v>
       </c>
       <c r="J26">
-        <v>3.101790857142856</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -1590,34 +1572,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D27">
-        <v>13.739781</v>
+        <v>3.197683</v>
       </c>
       <c r="E27">
-        <v>32.98110845714286</v>
+        <v>2.5581464</v>
       </c>
       <c r="F27">
-        <v>63.97243591428571</v>
+        <v>1.9186098</v>
       </c>
       <c r="G27">
-        <v>84.87657809002089</v>
+        <v>1.2790732</v>
       </c>
       <c r="H27">
-        <v>44.08618368542144</v>
+        <v>0.6395366</v>
       </c>
       <c r="I27">
-        <v>84.36968442514288</v>
+        <v>0</v>
       </c>
       <c r="J27">
-        <v>97.61141205257144</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>55.50107364000001</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -1628,37 +1610,37 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>550.08</v>
+        <v>21.712536</v>
       </c>
       <c r="E28">
-        <v>983.02</v>
+        <v>18.61074514285714</v>
       </c>
       <c r="F28">
-        <v>1530.69</v>
+        <v>15.50895428571429</v>
       </c>
       <c r="G28">
-        <v>2423.7130858904</v>
+        <v>12.40716342857143</v>
       </c>
       <c r="H28">
-        <v>2953.996843553848</v>
+        <v>9.30537257142857</v>
       </c>
       <c r="I28">
-        <v>3154.76753935248</v>
+        <v>6.203581714285715</v>
       </c>
       <c r="J28">
-        <v>3111.657283041119</v>
+        <v>3.101790857142856</v>
       </c>
       <c r="K28">
-        <v>3357.447655334815</v>
+        <v>0</v>
       </c>
       <c r="L28">
-        <v>3569.349709328375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1666,37 +1648,37 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>13.739781</v>
       </c>
       <c r="E29">
-        <v>126.62</v>
+        <v>32.98110845714285</v>
       </c>
       <c r="F29">
-        <v>259.57</v>
+        <v>63.97243591428572</v>
       </c>
       <c r="G29">
-        <v>1016.6853023352</v>
+        <v>64.85709580717501</v>
       </c>
       <c r="H29">
-        <v>2375.519873752799</v>
+        <v>11.75680848365357</v>
       </c>
       <c r="I29">
-        <v>4583.257863521763</v>
+        <v>24.525792532125</v>
       </c>
       <c r="J29">
-        <v>7695.9509163588</v>
+        <v>24.525792532125</v>
       </c>
       <c r="K29">
-        <v>10400.14914516338</v>
+        <v>0</v>
       </c>
       <c r="L29">
-        <v>12205.66894810675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1704,37 +1686,37 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D30">
-        <v>10.1822356408176</v>
+        <v>550.08</v>
       </c>
       <c r="E30">
-        <v>4.830263455478399</v>
+        <v>983.02</v>
       </c>
       <c r="F30">
-        <v>2.4151317277392</v>
+        <v>1530.69</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>2483.153339284388</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2405.885675591188</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>2168.640591988436</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2085.936892984153</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>840.13487706384</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>983.765583072</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1742,37 +1724,37 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>98.53800000000001</v>
+        <v>0</v>
       </c>
       <c r="E31">
-        <v>217.008</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>350.208</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>733.9151837865031</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1173.004069160805</v>
+        <v>562.7783288774956</v>
       </c>
       <c r="I31">
-        <v>1680.222810908034</v>
+        <v>902.3088806609398</v>
       </c>
       <c r="J31">
-        <v>2196.557783453975</v>
+        <v>1161.539634856966</v>
       </c>
       <c r="K31">
-        <v>2562.165134385512</v>
+        <v>2623.48445970864</v>
       </c>
       <c r="L31">
-        <v>2556.925649854871</v>
+        <v>2509.798475396501</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1780,37 +1762,37 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D32">
-        <v>55.50976435918241</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>139.8417365445216</v>
+        <v>126.62</v>
       </c>
       <c r="F32">
-        <v>231.0568682722607</v>
+        <v>259.5700000000001</v>
       </c>
       <c r="G32">
-        <v>733.915183786503</v>
+        <v>1038.162979949928</v>
       </c>
       <c r="H32">
-        <v>1173.004069160805</v>
+        <v>1385.047351877698</v>
       </c>
       <c r="I32">
-        <v>1680.222810908035</v>
+        <v>2214.912701487486</v>
       </c>
       <c r="J32">
-        <v>2196.557783453976</v>
+        <v>1905.156495051849</v>
       </c>
       <c r="K32">
-        <v>2562.165134385514</v>
+        <v>1189.536806650888</v>
       </c>
       <c r="L32">
-        <v>2556.925649854871</v>
+        <v>544.5894096342901</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1818,37 +1800,37 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D33">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>14.37701218288228</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>14.37701218288228</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>11.62204132933243</v>
+        <v>36.0402020652719</v>
       </c>
       <c r="H33">
-        <v>11.62204132933243</v>
+        <v>1017.866860598935</v>
       </c>
       <c r="I33">
-        <v>2.931149814831898</v>
+        <v>2411.873071876962</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>5783.766512610797</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>9545.7532583304</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>11370.74729553711</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1856,37 +1838,37 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>6.7881570938784</v>
       </c>
       <c r="E34">
-        <v>5.752987817117713</v>
+        <v>4.830263455478399</v>
       </c>
       <c r="F34">
-        <v>6.082987817117712</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>5.948572597067472</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>6.198690920267556</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>43.04202783397992</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>56.41300370960824</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>58.23276041447775</v>
+        <v>0</v>
       </c>
       <c r="L34">
-        <v>58.28880210288208</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1894,37 +1876,37 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D35">
-        <v>1.72</v>
+        <v>157.4418429061216</v>
       </c>
       <c r="E35">
-        <v>1.76</v>
+        <v>356.8497365445215</v>
       </c>
       <c r="F35">
-        <v>1.85</v>
+        <v>583.6799999999999</v>
       </c>
       <c r="G35">
-        <v>7.829001216000001</v>
+        <v>1391.7925877859</v>
       </c>
       <c r="H35">
-        <v>9.279152640000001</v>
+        <v>1956.502991211988</v>
       </c>
       <c r="I35">
-        <v>10.09908864</v>
+        <v>2262.486777297591</v>
       </c>
       <c r="J35">
-        <v>11.226816</v>
+        <v>1844.087114988475</v>
       </c>
       <c r="K35">
-        <v>11.98368</v>
+        <v>1195.014887110231</v>
       </c>
       <c r="L35">
-        <v>12.59926272</v>
+        <v>859.3404327269863</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1932,10 +1914,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1947,22 +1929,22 @@
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>33.01282509178888</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>314.3255968039863</v>
       </c>
       <c r="I36">
-        <v>1.39767552</v>
+        <v>1059.465982612421</v>
       </c>
       <c r="J36">
-        <v>8.665588224000002</v>
+        <v>2588.810122608431</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>3910.670163507533</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>3986.37755317728</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1970,37 +1952,37 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1.113761386557583</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>12.54677863949134</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>12.56831871629133</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>12.56831871629133</v>
       </c>
       <c r="H37">
-        <v>0.6149520000000001</v>
+        <v>12.56831871629134</v>
       </c>
       <c r="I37">
-        <v>4.09968</v>
+        <v>7.524938752392145</v>
       </c>
       <c r="J37">
-        <v>25.418016</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>158.247648</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>933.0871679999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2008,37 +1990,37 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1.626238613442417</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>7.583221360508663</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>7.891681283708664</v>
       </c>
       <c r="G38">
-        <v>4.580919359999996</v>
+        <v>7.891681283708663</v>
       </c>
       <c r="H38">
-        <v>4.580919359999983</v>
+        <v>7.889019645308662</v>
       </c>
       <c r="I38">
-        <v>4.989625919999995</v>
+        <v>7.601225586849594</v>
       </c>
       <c r="J38">
-        <v>154.6363375738906</v>
+        <v>7.601225586842811</v>
       </c>
       <c r="K38">
-        <v>331.3234419481735</v>
+        <v>7.598563948448469</v>
       </c>
       <c r="L38">
-        <v>737.6916102131518</v>
+        <v>0.1727163648000002</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2046,10 +2028,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -2064,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>0.002661638400000003</v>
       </c>
       <c r="I39">
-        <v>117.380934</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>462.5394234661095</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>1020.618416935252</v>
+        <v>0.002661638400005732</v>
       </c>
       <c r="L39">
-        <v>1438.133657341484</v>
+        <v>0.1243905984000001</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2084,37 +2066,37 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>25.08</v>
+        <v>0.2591920188</v>
       </c>
       <c r="E40">
-        <v>27.17</v>
+        <v>0.2767131576</v>
       </c>
       <c r="F40">
-        <v>29.26</v>
+        <v>0.2767131576</v>
       </c>
       <c r="G40">
-        <v>18.385834896</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>74.29004899200001</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>62.17908969600001</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>140.755322592</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>135.667020528</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>68.13620856</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2122,37 +2104,37 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D41">
-        <v>185</v>
+        <v>1.4608079812</v>
       </c>
       <c r="E41">
-        <v>190.475</v>
+        <v>1.4832868424</v>
       </c>
       <c r="F41">
-        <v>205.2</v>
+        <v>1.5732868424</v>
       </c>
       <c r="G41">
-        <v>53.56108929600001</v>
+        <v>5.719579200000001</v>
       </c>
       <c r="H41">
-        <v>212.4532259136</v>
+        <v>0.8199360000000007</v>
       </c>
       <c r="I41">
-        <v>223.3438113888</v>
+        <v>0.6307200000000006</v>
       </c>
       <c r="J41">
-        <v>398.1451157568</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>382.8500233056</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>191.971458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2160,37 +2142,37 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="D42">
-        <v>116.85</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>126.825</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>136.8</v>
+        <v>0</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>0.6149519999999999</v>
       </c>
       <c r="I42">
-        <v>0</v>
+        <v>4.099680000000001</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>25.418016</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>158.247648</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>933.0871680000002</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2198,37 +2180,37 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D43">
-        <v>37.525</v>
+        <v>0</v>
       </c>
       <c r="E43">
-        <v>46.8825</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>56.23999999999999</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>59.32441944</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>138.5196724800001</v>
+        <v>19.382814</v>
       </c>
       <c r="I43">
-        <v>107.2456156381646</v>
+        <v>169.66068408</v>
       </c>
       <c r="J43">
-        <v>150.60426768</v>
+        <v>612.4319466407782</v>
       </c>
       <c r="K43">
-        <v>122.1450775199996</v>
+        <v>1272.89529432</v>
       </c>
       <c r="L43">
-        <v>53.49372840000004</v>
+        <v>1927.689839712407</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2236,10 +2218,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -2260,13 +2242,13 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>45.76979068952289</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>355.9448622817413</v>
       </c>
       <c r="L44">
-        <v>9.93384</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TEMOA_Europe_Results/_3_Electricity.xlsx
+++ b/TEMOA_Europe_Results/_3_Electricity.xlsx
@@ -634,10 +634,10 @@
         <v>1520.464244380225</v>
       </c>
       <c r="F2">
-        <v>874.1022336</v>
+        <v>874.1022335999999</v>
       </c>
       <c r="G2">
-        <v>582.7348224</v>
+        <v>582.7348224000001</v>
       </c>
       <c r="H2">
         <v>291.3674111999999</v>
@@ -666,7 +666,7 @@
         <v>48</v>
       </c>
       <c r="D3">
-        <v>217.3575348000001</v>
+        <v>217.3575348</v>
       </c>
       <c r="E3">
         <v>279.3504831824</v>
@@ -675,7 +675,7 @@
         <v>194.6508925153204</v>
       </c>
       <c r="G3">
-        <v>86.94301392000001</v>
+        <v>86.94301392000003</v>
       </c>
       <c r="H3">
         <v>43.47150696</v>
@@ -710,7 +710,7 @@
         <v>1300.645272437374</v>
       </c>
       <c r="F4">
-        <v>627.3168738846795</v>
+        <v>627.3168738846796</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>48</v>
       </c>
       <c r="D5">
-        <v>1941.31571508</v>
+        <v>1941.315715079999</v>
       </c>
       <c r="E5">
         <v>1157.003056980515</v>
@@ -751,7 +751,7 @@
         <v>1164.789429048</v>
       </c>
       <c r="G5">
-        <v>408.6980452799999</v>
+        <v>408.69804528</v>
       </c>
       <c r="H5">
         <v>204.3490226399999</v>
@@ -780,7 +780,7 @@
         <v>48</v>
       </c>
       <c r="D6">
-        <v>583.912548309077</v>
+        <v>583.9125483090769</v>
       </c>
       <c r="E6">
         <v>394.2141250484282</v>
@@ -900,7 +900,7 @@
         <v>41.4922952</v>
       </c>
       <c r="F9">
-        <v>31.1192214</v>
+        <v>31.11922139999999</v>
       </c>
       <c r="G9">
         <v>20.7461476</v>
@@ -932,7 +932,7 @@
         <v>48</v>
       </c>
       <c r="D10">
-        <v>54.67765727500007</v>
+        <v>54.67765727500008</v>
       </c>
       <c r="E10">
         <v>29.21015679999999</v>
@@ -973,7 +973,7 @@
         <v>696.4095484746833</v>
       </c>
       <c r="E11">
-        <v>803.5990583550148</v>
+        <v>803.5990583550149</v>
       </c>
       <c r="F11">
         <v>746.4152130109184</v>
@@ -1011,7 +1011,7 @@
         <v>1202.201122502677</v>
       </c>
       <c r="E12">
-        <v>783.1065785810426</v>
+        <v>783.1065785810425</v>
       </c>
       <c r="F12">
         <v>641.6750554586247</v>
@@ -1020,10 +1020,10 @@
         <v>1057.577611561101</v>
       </c>
       <c r="H12">
-        <v>822.4407620231544</v>
+        <v>822.4407620231543</v>
       </c>
       <c r="I12">
-        <v>454.2133069190608</v>
+        <v>454.2133069190609</v>
       </c>
       <c r="J12">
         <v>277.6180536939086</v>
@@ -1140,13 +1140,13 @@
         <v>1049.327734629124</v>
       </c>
       <c r="J15">
-        <v>1030.465774429567</v>
+        <v>1030.465774429566</v>
       </c>
       <c r="K15">
         <v>1147.049225709035</v>
       </c>
       <c r="L15">
-        <v>1839.780223902854</v>
+        <v>1839.780223902853</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1283,7 +1283,7 @@
         <v>2101.599200000001</v>
       </c>
       <c r="G19">
-        <v>2149.08925824</v>
+        <v>2149.089258240001</v>
       </c>
       <c r="H19">
         <v>1790.9077152</v>
@@ -1298,7 +1298,7 @@
         <v>716.3630860800001</v>
       </c>
       <c r="L19">
-        <v>358.18154304</v>
+        <v>358.1815430400001</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1312,25 +1312,25 @@
         <v>48</v>
       </c>
       <c r="D20">
-        <v>85.61842668000013</v>
+        <v>85.61842668000011</v>
       </c>
       <c r="E20">
-        <v>561.9843679999994</v>
+        <v>561.9843679999993</v>
       </c>
       <c r="F20">
-        <v>525.3907999999997</v>
+        <v>525.3907999999998</v>
       </c>
       <c r="G20">
         <v>691.74620712</v>
       </c>
       <c r="H20">
-        <v>691.7462071200001</v>
+        <v>691.74620712</v>
       </c>
       <c r="I20">
-        <v>691.7462071199999</v>
+        <v>691.7462071199998</v>
       </c>
       <c r="J20">
-        <v>691.7462071199989</v>
+        <v>691.7462071199991</v>
       </c>
       <c r="K20">
         <v>691.7462071199988</v>
@@ -1365,10 +1365,10 @@
         <v>255.3857374799998</v>
       </c>
       <c r="I21">
-        <v>516.1325949600002</v>
+        <v>516.1325949600001</v>
       </c>
       <c r="J21">
-        <v>781.9725164399996</v>
+        <v>781.9725164399995</v>
       </c>
       <c r="K21">
         <v>1052.36938992</v>
@@ -1397,7 +1397,7 @@
         <v>23.54844487199999</v>
       </c>
       <c r="G22">
-        <v>15.698963248</v>
+        <v>15.69896324799999</v>
       </c>
       <c r="H22">
         <v>7.849481623999997</v>
@@ -1432,7 +1432,7 @@
         <v>87.92236800000001</v>
       </c>
       <c r="F23">
-        <v>65.94177599999999</v>
+        <v>65.941776</v>
       </c>
       <c r="G23">
         <v>43.96118400000001</v>
@@ -1508,7 +1508,7 @@
         <v>414.259941065712</v>
       </c>
       <c r="F25">
-        <v>543.2563193070821</v>
+        <v>543.2563193070822</v>
       </c>
       <c r="G25">
         <v>733.2420504884</v>
@@ -1546,7 +1546,7 @@
         <v>163.92</v>
       </c>
       <c r="F26">
-        <v>186.2400000000001</v>
+        <v>186.24</v>
       </c>
       <c r="G26">
         <v>53.87755465757211</v>
@@ -1660,10 +1660,10 @@
         <v>32.98110845714285</v>
       </c>
       <c r="F29">
-        <v>63.97243591428572</v>
+        <v>63.97243591428571</v>
       </c>
       <c r="G29">
-        <v>64.85709580717501</v>
+        <v>64.857095807175</v>
       </c>
       <c r="H29">
         <v>11.75680848365357</v>
@@ -1692,10 +1692,10 @@
         <v>48</v>
       </c>
       <c r="D30">
-        <v>550.08</v>
+        <v>550.0799999999999</v>
       </c>
       <c r="E30">
-        <v>983.02</v>
+        <v>983.0200000000001</v>
       </c>
       <c r="F30">
         <v>1530.69</v>
@@ -1704,13 +1704,13 @@
         <v>2483.153339284388</v>
       </c>
       <c r="H30">
-        <v>2405.885675591188</v>
+        <v>2405.885675591187</v>
       </c>
       <c r="I30">
         <v>2168.640591988436</v>
       </c>
       <c r="J30">
-        <v>2085.936892984153</v>
+        <v>2085.936892984154</v>
       </c>
       <c r="K30">
         <v>840.13487706384</v>
@@ -1745,7 +1745,7 @@
         <v>562.7783288774956</v>
       </c>
       <c r="I31">
-        <v>902.3088806609398</v>
+        <v>902.3088806609397</v>
       </c>
       <c r="J31">
         <v>1161.539634856966</v>
@@ -1774,7 +1774,7 @@
         <v>126.62</v>
       </c>
       <c r="F32">
-        <v>259.5700000000001</v>
+        <v>259.57</v>
       </c>
       <c r="G32">
         <v>1038.162979949928</v>
@@ -1783,7 +1783,7 @@
         <v>1385.047351877698</v>
       </c>
       <c r="I32">
-        <v>2214.912701487486</v>
+        <v>2214.912701487485</v>
       </c>
       <c r="J32">
         <v>1905.156495051849</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <v>36.0402020652719</v>
+        <v>36.04020206527189</v>
       </c>
       <c r="H33">
         <v>1017.866860598935</v>
@@ -1824,10 +1824,10 @@
         <v>2411.873071876962</v>
       </c>
       <c r="J33">
-        <v>5783.766512610797</v>
+        <v>5783.766512610796</v>
       </c>
       <c r="K33">
-        <v>9545.7532583304</v>
+        <v>9545.753258330398</v>
       </c>
       <c r="L33">
         <v>11370.74729553711</v>
@@ -1844,7 +1844,7 @@
         <v>48</v>
       </c>
       <c r="D34">
-        <v>6.7881570938784</v>
+        <v>6.788157093878399</v>
       </c>
       <c r="E34">
         <v>4.830263455478399</v>
@@ -1888,7 +1888,7 @@
         <v>356.8497365445215</v>
       </c>
       <c r="F35">
-        <v>583.6799999999999</v>
+        <v>583.6799999999998</v>
       </c>
       <c r="G35">
         <v>1391.7925877859</v>
@@ -1906,7 +1906,7 @@
         <v>1195.014887110231</v>
       </c>
       <c r="L35">
-        <v>859.3404327269863</v>
+        <v>859.3404327269861</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1932,7 +1932,7 @@
         <v>33.01282509178888</v>
       </c>
       <c r="H36">
-        <v>314.3255968039863</v>
+        <v>314.3255968039862</v>
       </c>
       <c r="I36">
         <v>1059.465982612421</v>
@@ -1944,7 +1944,7 @@
         <v>3910.670163507533</v>
       </c>
       <c r="L36">
-        <v>3986.37755317728</v>
+        <v>3986.377553177279</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1967,10 +1967,10 @@
         <v>12.56831871629133</v>
       </c>
       <c r="G37">
+        <v>12.56831871629134</v>
+      </c>
+      <c r="H37">
         <v>12.56831871629133</v>
-      </c>
-      <c r="H37">
-        <v>12.56831871629134</v>
       </c>
       <c r="I37">
         <v>7.524938752392145</v>
@@ -1999,13 +1999,13 @@
         <v>1.626238613442417</v>
       </c>
       <c r="E38">
-        <v>7.583221360508663</v>
+        <v>7.583221360508662</v>
       </c>
       <c r="F38">
         <v>7.891681283708664</v>
       </c>
       <c r="G38">
-        <v>7.891681283708663</v>
+        <v>7.891681283708664</v>
       </c>
       <c r="H38">
         <v>7.889019645308662</v>
@@ -2014,7 +2014,7 @@
         <v>7.601225586849594</v>
       </c>
       <c r="J38">
-        <v>7.601225586842811</v>
+        <v>7.60122558684281</v>
       </c>
       <c r="K38">
         <v>7.598563948448469</v>
@@ -2122,7 +2122,7 @@
         <v>5.719579200000001</v>
       </c>
       <c r="H41">
-        <v>0.8199360000000007</v>
+        <v>0.8199360000000008</v>
       </c>
       <c r="I41">
         <v>0.6307200000000006</v>
@@ -2160,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>0.6149519999999999</v>
+        <v>0.6149520000000001</v>
       </c>
       <c r="I42">
-        <v>4.099680000000001</v>
+        <v>4.09968</v>
       </c>
       <c r="J42">
         <v>25.418016</v>
       </c>
       <c r="K42">
-        <v>158.247648</v>
+        <v>158.2476480000001</v>
       </c>
       <c r="L42">
-        <v>933.0871680000002</v>
+        <v>933.087168</v>
       </c>
     </row>
     <row r="43" spans="1:12">
